--- a/rbc.xlsx
+++ b/rbc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cotep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426E1C08-6D5A-4170-BDD6-EA3A50478E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE3D06C-4B54-4131-99DB-7726B04F0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="3000" windowWidth="28800" windowHeight="15345"/>
+    <workbookView xWindow="40920" yWindow="3000" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ry" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -42,12 +42,32 @@
   <si>
     <t>Volume</t>
   </si>
+  <si>
+    <t>I am a coop working for google and was asked to create a spreadsheet for download by investor.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click like me at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>www.facebook.com/IluvExcel</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +198,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -881,5806 +910,5818 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44960</v>
-      </c>
-      <c r="B2">
-        <v>136.5</v>
-      </c>
-      <c r="C2">
-        <v>138.199997</v>
-      </c>
-      <c r="D2">
-        <v>136.46000699999999</v>
-      </c>
-      <c r="E2">
-        <v>138.14999399999999</v>
-      </c>
-      <c r="F2">
-        <v>132.36759900000001</v>
-      </c>
-      <c r="G2">
-        <v>4559100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44963</v>
-      </c>
-      <c r="B3">
-        <v>137.63000500000001</v>
-      </c>
-      <c r="C3">
-        <v>138.25</v>
-      </c>
-      <c r="D3">
-        <v>137.070007</v>
-      </c>
-      <c r="E3">
-        <v>138.11999499999999</v>
-      </c>
-      <c r="F3">
-        <v>132.33883700000001</v>
-      </c>
-      <c r="G3">
-        <v>7063600</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B4">
-        <v>137.58999600000001</v>
+        <v>136.5</v>
       </c>
       <c r="C4">
-        <v>139.070007</v>
+        <v>138.199997</v>
       </c>
       <c r="D4">
-        <v>137.41999799999999</v>
+        <v>136.46000699999999</v>
       </c>
       <c r="E4">
-        <v>138.61999499999999</v>
+        <v>138.14999399999999</v>
       </c>
       <c r="F4">
-        <v>132.81791699999999</v>
+        <v>132.36759900000001</v>
       </c>
       <c r="G4">
-        <v>5276300</v>
+        <v>4559100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B5">
-        <v>138.229996</v>
+        <v>137.63000500000001</v>
       </c>
       <c r="C5">
-        <v>139.63999899999999</v>
+        <v>138.25</v>
       </c>
       <c r="D5">
-        <v>138.03999300000001</v>
+        <v>137.070007</v>
       </c>
       <c r="E5">
-        <v>139.550003</v>
+        <v>138.11999499999999</v>
       </c>
       <c r="F5">
-        <v>133.709</v>
+        <v>132.33883700000001</v>
       </c>
       <c r="G5">
-        <v>3103900</v>
+        <v>7063600</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B6">
-        <v>139.990005</v>
+        <v>137.58999600000001</v>
       </c>
       <c r="C6">
-        <v>140.179993</v>
+        <v>139.070007</v>
       </c>
       <c r="D6">
-        <v>138.550003</v>
+        <v>137.41999799999999</v>
       </c>
       <c r="E6">
-        <v>139.25</v>
+        <v>138.61999499999999</v>
       </c>
       <c r="F6">
-        <v>133.421539</v>
+        <v>132.81791699999999</v>
       </c>
       <c r="G6">
-        <v>3103000</v>
+        <v>5276300</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B7">
-        <v>138.759995</v>
+        <v>138.229996</v>
       </c>
       <c r="C7">
-        <v>139.229996</v>
+        <v>139.63999899999999</v>
       </c>
       <c r="D7">
-        <v>138.259995</v>
+        <v>138.03999300000001</v>
       </c>
       <c r="E7">
-        <v>138.759995</v>
+        <v>139.550003</v>
       </c>
       <c r="F7">
-        <v>132.952057</v>
+        <v>133.709</v>
       </c>
       <c r="G7">
-        <v>4095700</v>
+        <v>3103900</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44970</v>
+        <v>44966</v>
       </c>
       <c r="B8">
-        <v>138.75</v>
+        <v>139.990005</v>
       </c>
       <c r="C8">
-        <v>139.44000199999999</v>
+        <v>140.179993</v>
       </c>
       <c r="D8">
-        <v>138.35000600000001</v>
+        <v>138.550003</v>
       </c>
       <c r="E8">
-        <v>138.990005</v>
+        <v>139.25</v>
       </c>
       <c r="F8">
-        <v>133.17243999999999</v>
+        <v>133.421539</v>
       </c>
       <c r="G8">
-        <v>4340000</v>
+        <v>3103000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44971</v>
+        <v>44967</v>
       </c>
       <c r="B9">
-        <v>138.770004</v>
+        <v>138.759995</v>
       </c>
       <c r="C9">
-        <v>139.25</v>
+        <v>139.229996</v>
       </c>
       <c r="D9">
-        <v>138.05999800000001</v>
+        <v>138.259995</v>
       </c>
       <c r="E9">
-        <v>138.85000600000001</v>
+        <v>138.759995</v>
       </c>
       <c r="F9">
-        <v>133.03829999999999</v>
+        <v>132.952057</v>
       </c>
       <c r="G9">
-        <v>2514100</v>
+        <v>4095700</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44972</v>
+        <v>44970</v>
       </c>
       <c r="B10">
-        <v>137.990005</v>
+        <v>138.75</v>
       </c>
       <c r="C10">
-        <v>138.759995</v>
+        <v>139.44000199999999</v>
       </c>
       <c r="D10">
-        <v>137.779999</v>
+        <v>138.35000600000001</v>
       </c>
       <c r="E10">
-        <v>138.66999799999999</v>
+        <v>138.990005</v>
       </c>
       <c r="F10">
-        <v>132.86582899999999</v>
+        <v>133.17243999999999</v>
       </c>
       <c r="G10">
-        <v>5379800</v>
+        <v>4340000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44973</v>
+        <v>44971</v>
       </c>
       <c r="B11">
-        <v>138.30999800000001</v>
+        <v>138.770004</v>
       </c>
       <c r="C11">
-        <v>139.38000500000001</v>
+        <v>139.25</v>
       </c>
       <c r="D11">
-        <v>138.30999800000001</v>
+        <v>138.05999800000001</v>
       </c>
       <c r="E11">
-        <v>138.53999300000001</v>
+        <v>138.85000600000001</v>
       </c>
       <c r="F11">
-        <v>132.741241</v>
+        <v>133.03829999999999</v>
       </c>
       <c r="G11">
-        <v>5294400</v>
+        <v>2514100</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44974</v>
+        <v>44972</v>
       </c>
       <c r="B12">
-        <v>137.759995</v>
+        <v>137.990005</v>
       </c>
       <c r="C12">
-        <v>139.35000600000001</v>
+        <v>138.759995</v>
       </c>
       <c r="D12">
-        <v>137.759995</v>
+        <v>137.779999</v>
       </c>
       <c r="E12">
-        <v>138.78999300000001</v>
+        <v>138.66999799999999</v>
       </c>
       <c r="F12">
-        <v>132.98080400000001</v>
+        <v>132.86582899999999</v>
       </c>
       <c r="G12">
-        <v>5139900</v>
+        <v>5379800</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="B13">
-        <v>138.300003</v>
+        <v>138.30999800000001</v>
       </c>
       <c r="C13">
-        <v>138.64999399999999</v>
+        <v>139.38000500000001</v>
       </c>
       <c r="D13">
-        <v>137.71000699999999</v>
+        <v>138.30999800000001</v>
       </c>
       <c r="E13">
-        <v>138.229996</v>
+        <v>138.53999300000001</v>
       </c>
       <c r="F13">
-        <v>132.44422900000001</v>
+        <v>132.741241</v>
       </c>
       <c r="G13">
-        <v>3834400</v>
+        <v>5294400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44979</v>
+        <v>44974</v>
       </c>
       <c r="B14">
-        <v>137.75</v>
+        <v>137.759995</v>
       </c>
       <c r="C14">
-        <v>137.820007</v>
+        <v>139.35000600000001</v>
       </c>
       <c r="D14">
-        <v>136.35000600000001</v>
+        <v>137.759995</v>
       </c>
       <c r="E14">
-        <v>136.550003</v>
+        <v>138.78999300000001</v>
       </c>
       <c r="F14">
-        <v>130.834564</v>
+        <v>132.98080400000001</v>
       </c>
       <c r="G14">
-        <v>4922300</v>
+        <v>5139900</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44980</v>
+        <v>44978</v>
       </c>
       <c r="B15">
-        <v>137</v>
+        <v>138.300003</v>
       </c>
       <c r="C15">
-        <v>137.19000199999999</v>
+        <v>138.64999399999999</v>
       </c>
       <c r="D15">
-        <v>135.39999399999999</v>
+        <v>137.71000699999999</v>
       </c>
       <c r="E15">
-        <v>135.86999499999999</v>
+        <v>138.229996</v>
       </c>
       <c r="F15">
-        <v>130.18301400000001</v>
+        <v>132.44422900000001</v>
       </c>
       <c r="G15">
-        <v>2714400</v>
+        <v>3834400</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44981</v>
+        <v>44979</v>
       </c>
       <c r="B16">
-        <v>135.35000600000001</v>
+        <v>137.75</v>
       </c>
       <c r="C16">
-        <v>137.279999</v>
+        <v>137.820007</v>
       </c>
       <c r="D16">
-        <v>135.13999899999999</v>
+        <v>136.35000600000001</v>
       </c>
       <c r="E16">
-        <v>137.220001</v>
+        <v>136.550003</v>
       </c>
       <c r="F16">
-        <v>131.476517</v>
+        <v>130.834564</v>
       </c>
       <c r="G16">
-        <v>2826100</v>
+        <v>4922300</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44984</v>
+        <v>44980</v>
       </c>
       <c r="B17">
-        <v>137.5</v>
+        <v>137</v>
       </c>
       <c r="C17">
-        <v>138.770004</v>
+        <v>137.19000199999999</v>
       </c>
       <c r="D17">
-        <v>137.41999799999999</v>
+        <v>135.39999399999999</v>
       </c>
       <c r="E17">
-        <v>138.03999300000001</v>
+        <v>135.86999499999999</v>
       </c>
       <c r="F17">
-        <v>132.26220699999999</v>
+        <v>130.18301400000001</v>
       </c>
       <c r="G17">
-        <v>1882300</v>
+        <v>2714400</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44985</v>
+        <v>44981</v>
       </c>
       <c r="B18">
-        <v>137.679993</v>
+        <v>135.35000600000001</v>
       </c>
       <c r="C18">
-        <v>138.800003</v>
+        <v>137.279999</v>
       </c>
       <c r="D18">
-        <v>137.479996</v>
+        <v>135.13999899999999</v>
       </c>
       <c r="E18">
-        <v>138.53999300000001</v>
+        <v>137.220001</v>
       </c>
       <c r="F18">
-        <v>132.741241</v>
+        <v>131.476517</v>
       </c>
       <c r="G18">
-        <v>3941300</v>
+        <v>2826100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44986</v>
+        <v>44984</v>
       </c>
       <c r="B19">
-        <v>136.64999399999999</v>
+        <v>137.5</v>
       </c>
       <c r="C19">
-        <v>137.050003</v>
+        <v>138.770004</v>
       </c>
       <c r="D19">
-        <v>132.35000600000001</v>
+        <v>137.41999799999999</v>
       </c>
       <c r="E19">
-        <v>133.61999499999999</v>
+        <v>138.03999300000001</v>
       </c>
       <c r="F19">
-        <v>128.02720600000001</v>
+        <v>132.26220699999999</v>
       </c>
       <c r="G19">
-        <v>5951400</v>
+        <v>1882300</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44987</v>
+        <v>44985</v>
       </c>
       <c r="B20">
-        <v>133.60000600000001</v>
+        <v>137.679993</v>
       </c>
       <c r="C20">
-        <v>136.38000500000001</v>
+        <v>138.800003</v>
       </c>
       <c r="D20">
-        <v>133.08999600000001</v>
+        <v>137.479996</v>
       </c>
       <c r="E20">
-        <v>136.21000699999999</v>
+        <v>138.53999300000001</v>
       </c>
       <c r="F20">
-        <v>130.50878900000001</v>
+        <v>132.741241</v>
       </c>
       <c r="G20">
-        <v>3822300</v>
+        <v>3941300</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44988</v>
+        <v>44986</v>
       </c>
       <c r="B21">
-        <v>136.71000699999999</v>
+        <v>136.64999399999999</v>
       </c>
       <c r="C21">
-        <v>137.19000199999999</v>
+        <v>137.050003</v>
       </c>
       <c r="D21">
-        <v>136.5</v>
+        <v>132.35000600000001</v>
       </c>
       <c r="E21">
-        <v>136.75</v>
+        <v>133.61999499999999</v>
       </c>
       <c r="F21">
-        <v>131.02619899999999</v>
+        <v>128.02720600000001</v>
       </c>
       <c r="G21">
-        <v>3257900</v>
+        <v>5951400</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44991</v>
+        <v>44987</v>
       </c>
       <c r="B22">
-        <v>136.86000100000001</v>
+        <v>133.60000600000001</v>
       </c>
       <c r="C22">
-        <v>137.779999</v>
+        <v>136.38000500000001</v>
       </c>
       <c r="D22">
-        <v>136.63000500000001</v>
+        <v>133.08999600000001</v>
       </c>
       <c r="E22">
-        <v>137.21000699999999</v>
+        <v>136.21000699999999</v>
       </c>
       <c r="F22">
-        <v>131.46693400000001</v>
+        <v>130.50878900000001</v>
       </c>
       <c r="G22">
-        <v>2781200</v>
+        <v>3822300</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B23">
-        <v>137.21000699999999</v>
+        <v>136.71000699999999</v>
       </c>
       <c r="C23">
-        <v>137.21000699999999</v>
+        <v>137.19000199999999</v>
       </c>
       <c r="D23">
-        <v>135.61999499999999</v>
+        <v>136.5</v>
       </c>
       <c r="E23">
-        <v>136.53999300000001</v>
+        <v>136.75</v>
       </c>
       <c r="F23">
-        <v>130.82498200000001</v>
+        <v>131.02619899999999</v>
       </c>
       <c r="G23">
-        <v>2226900</v>
+        <v>3257900</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44993</v>
+        <v>44991</v>
       </c>
       <c r="B24">
-        <v>135.71000699999999</v>
+        <v>136.86000100000001</v>
       </c>
       <c r="C24">
-        <v>137.229996</v>
+        <v>137.779999</v>
       </c>
       <c r="D24">
-        <v>135.71000699999999</v>
+        <v>136.63000500000001</v>
       </c>
       <c r="E24">
-        <v>137.05999800000001</v>
+        <v>137.21000699999999</v>
       </c>
       <c r="F24">
-        <v>131.32321200000001</v>
+        <v>131.46693400000001</v>
       </c>
       <c r="G24">
-        <v>2711800</v>
+        <v>2781200</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44994</v>
+        <v>44992</v>
       </c>
       <c r="B25">
-        <v>136.88999899999999</v>
+        <v>137.21000699999999</v>
       </c>
       <c r="C25">
-        <v>137.16000399999999</v>
+        <v>137.21000699999999</v>
       </c>
       <c r="D25">
-        <v>134.91000399999999</v>
+        <v>135.61999499999999</v>
       </c>
       <c r="E25">
-        <v>135.38999899999999</v>
+        <v>136.53999300000001</v>
       </c>
       <c r="F25">
-        <v>129.72311400000001</v>
+        <v>130.82498200000001</v>
       </c>
       <c r="G25">
-        <v>3352700</v>
+        <v>2226900</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44995</v>
+        <v>44993</v>
       </c>
       <c r="B26">
-        <v>134.449997</v>
+        <v>135.71000699999999</v>
       </c>
       <c r="C26">
-        <v>135</v>
+        <v>137.229996</v>
       </c>
       <c r="D26">
-        <v>132.61000100000001</v>
+        <v>135.71000699999999</v>
       </c>
       <c r="E26">
-        <v>133.11000100000001</v>
+        <v>137.05999800000001</v>
       </c>
       <c r="F26">
-        <v>127.538551</v>
+        <v>131.32321200000001</v>
       </c>
       <c r="G26">
-        <v>4088800</v>
+        <v>2711800</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44998</v>
+        <v>44994</v>
       </c>
       <c r="B27">
-        <v>131</v>
+        <v>136.88999899999999</v>
       </c>
       <c r="C27">
-        <v>132.220001</v>
+        <v>137.16000399999999</v>
       </c>
       <c r="D27">
-        <v>128.91000399999999</v>
+        <v>134.91000399999999</v>
       </c>
       <c r="E27">
-        <v>131.270004</v>
+        <v>135.38999899999999</v>
       </c>
       <c r="F27">
-        <v>125.775566</v>
+        <v>129.72311400000001</v>
       </c>
       <c r="G27">
-        <v>4516000</v>
+        <v>3352700</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44999</v>
+        <v>44995</v>
       </c>
       <c r="B28">
-        <v>133.96000699999999</v>
+        <v>134.449997</v>
       </c>
       <c r="C28">
-        <v>134.11000100000001</v>
+        <v>135</v>
       </c>
       <c r="D28">
-        <v>131.529999</v>
+        <v>132.61000100000001</v>
       </c>
       <c r="E28">
-        <v>132.759995</v>
+        <v>133.11000100000001</v>
       </c>
       <c r="F28">
-        <v>127.203186</v>
+        <v>127.538551</v>
       </c>
       <c r="G28">
-        <v>3058500</v>
+        <v>4088800</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45000</v>
+        <v>44998</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C29">
-        <v>130.88000500000001</v>
+        <v>132.220001</v>
       </c>
       <c r="D29">
-        <v>129.14999399999999</v>
+        <v>128.91000399999999</v>
       </c>
       <c r="E29">
-        <v>130.53999300000001</v>
+        <v>131.270004</v>
       </c>
       <c r="F29">
-        <v>125.076111</v>
+        <v>125.775566</v>
       </c>
       <c r="G29">
-        <v>4193800</v>
+        <v>4516000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45001</v>
+        <v>44999</v>
       </c>
       <c r="B30">
-        <v>129.88999899999999</v>
+        <v>133.96000699999999</v>
       </c>
       <c r="C30">
-        <v>132.30999800000001</v>
+        <v>134.11000100000001</v>
       </c>
       <c r="D30">
-        <v>128.529999</v>
+        <v>131.529999</v>
       </c>
       <c r="E30">
-        <v>130.5</v>
+        <v>132.759995</v>
       </c>
       <c r="F30">
-        <v>125.03778800000001</v>
+        <v>127.203186</v>
       </c>
       <c r="G30">
-        <v>3128200</v>
+        <v>3058500</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45002</v>
+        <v>45000</v>
       </c>
       <c r="B31">
-        <v>129.08000200000001</v>
+        <v>130</v>
       </c>
       <c r="C31">
-        <v>129.199997</v>
+        <v>130.88000500000001</v>
       </c>
       <c r="D31">
-        <v>127.029999</v>
+        <v>129.14999399999999</v>
       </c>
       <c r="E31">
-        <v>127.260002</v>
+        <v>130.53999300000001</v>
       </c>
       <c r="F31">
-        <v>121.933403</v>
+        <v>125.076111</v>
       </c>
       <c r="G31">
-        <v>8312600</v>
+        <v>4193800</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45005</v>
+        <v>45001</v>
       </c>
       <c r="B32">
-        <v>127.459999</v>
+        <v>129.88999899999999</v>
       </c>
       <c r="C32">
-        <v>129.33000200000001</v>
+        <v>132.30999800000001</v>
       </c>
       <c r="D32">
-        <v>127.449997</v>
+        <v>128.529999</v>
       </c>
       <c r="E32">
-        <v>128.550003</v>
+        <v>130.5</v>
       </c>
       <c r="F32">
-        <v>123.169411</v>
+        <v>125.03778800000001</v>
       </c>
       <c r="G32">
-        <v>2152900</v>
+        <v>3128200</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45006</v>
+        <v>45002</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>129.08000200000001</v>
       </c>
       <c r="C33">
-        <v>130.89999399999999</v>
+        <v>129.199997</v>
       </c>
       <c r="D33">
-        <v>129.58000200000001</v>
+        <v>127.029999</v>
       </c>
       <c r="E33">
-        <v>129.779999</v>
+        <v>127.260002</v>
       </c>
       <c r="F33">
-        <v>124.347916</v>
+        <v>121.933403</v>
       </c>
       <c r="G33">
-        <v>2694200</v>
+        <v>8312600</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45007</v>
+        <v>45005</v>
       </c>
       <c r="B34">
-        <v>130.66000399999999</v>
+        <v>127.459999</v>
       </c>
       <c r="C34">
-        <v>130.66000399999999</v>
+        <v>129.33000200000001</v>
       </c>
       <c r="D34">
-        <v>127.970001</v>
+        <v>127.449997</v>
       </c>
       <c r="E34">
-        <v>127.989998</v>
+        <v>128.550003</v>
       </c>
       <c r="F34">
-        <v>122.632851</v>
+        <v>123.169411</v>
       </c>
       <c r="G34">
-        <v>2613900</v>
+        <v>2152900</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45008</v>
+        <v>45006</v>
       </c>
       <c r="B35">
-        <v>128.10000600000001</v>
+        <v>130</v>
       </c>
       <c r="C35">
-        <v>129.10000600000001</v>
+        <v>130.89999399999999</v>
       </c>
       <c r="D35">
-        <v>126.55999799999999</v>
+        <v>129.58000200000001</v>
       </c>
       <c r="E35">
-        <v>127.07</v>
+        <v>129.779999</v>
       </c>
       <c r="F35">
-        <v>121.751366</v>
+        <v>124.347916</v>
       </c>
       <c r="G35">
-        <v>3565400</v>
+        <v>2694200</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45009</v>
+        <v>45007</v>
       </c>
       <c r="B36">
-        <v>125.720001</v>
+        <v>130.66000399999999</v>
       </c>
       <c r="C36">
-        <v>126.900002</v>
+        <v>130.66000399999999</v>
       </c>
       <c r="D36">
-        <v>125.32</v>
+        <v>127.970001</v>
       </c>
       <c r="E36">
-        <v>126.80999799999999</v>
+        <v>127.989998</v>
       </c>
       <c r="F36">
-        <v>121.502228</v>
+        <v>122.632851</v>
       </c>
       <c r="G36">
-        <v>2106200</v>
+        <v>2613900</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45012</v>
+        <v>45008</v>
       </c>
       <c r="B37">
         <v>128.10000600000001</v>
       </c>
       <c r="C37">
-        <v>128.16999799999999</v>
+        <v>129.10000600000001</v>
       </c>
       <c r="D37">
-        <v>127.029999</v>
+        <v>126.55999799999999</v>
       </c>
       <c r="E37">
-        <v>127.769997</v>
+        <v>127.07</v>
       </c>
       <c r="F37">
-        <v>122.42205</v>
+        <v>121.751366</v>
       </c>
       <c r="G37">
-        <v>2212800</v>
+        <v>3565400</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45013</v>
+        <v>45009</v>
       </c>
       <c r="B38">
-        <v>127.699997</v>
+        <v>125.720001</v>
       </c>
       <c r="C38">
-        <v>128.320007</v>
+        <v>126.900002</v>
       </c>
       <c r="D38">
-        <v>126.760002</v>
+        <v>125.32</v>
       </c>
       <c r="E38">
-        <v>127.139999</v>
+        <v>126.80999799999999</v>
       </c>
       <c r="F38">
-        <v>121.818428</v>
+        <v>121.502228</v>
       </c>
       <c r="G38">
-        <v>3658400</v>
+        <v>2106200</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45014</v>
+        <v>45012</v>
       </c>
       <c r="B39">
-        <v>127.870003</v>
+        <v>128.10000600000001</v>
       </c>
       <c r="C39">
-        <v>128.35000600000001</v>
+        <v>128.16999799999999</v>
       </c>
       <c r="D39">
-        <v>127.389999</v>
+        <v>127.029999</v>
       </c>
       <c r="E39">
-        <v>128.11999499999999</v>
+        <v>127.769997</v>
       </c>
       <c r="F39">
-        <v>122.757401</v>
+        <v>122.42205</v>
       </c>
       <c r="G39">
-        <v>2775800</v>
+        <v>2212800</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45015</v>
+        <v>45013</v>
       </c>
       <c r="B40">
-        <v>129.11000100000001</v>
+        <v>127.699997</v>
       </c>
       <c r="C40">
-        <v>129.470001</v>
+        <v>128.320007</v>
       </c>
       <c r="D40">
-        <v>128.16999799999999</v>
+        <v>126.760002</v>
       </c>
       <c r="E40">
-        <v>128.46000699999999</v>
+        <v>127.139999</v>
       </c>
       <c r="F40">
-        <v>123.08318300000001</v>
+        <v>121.818428</v>
       </c>
       <c r="G40">
-        <v>1924500</v>
+        <v>3658400</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45016</v>
+        <v>45014</v>
       </c>
       <c r="B41">
-        <v>128.529999</v>
+        <v>127.870003</v>
       </c>
       <c r="C41">
-        <v>129.300003</v>
+        <v>128.35000600000001</v>
       </c>
       <c r="D41">
-        <v>128.529999</v>
+        <v>127.389999</v>
       </c>
       <c r="E41">
-        <v>129.25</v>
+        <v>128.11999499999999</v>
       </c>
       <c r="F41">
-        <v>123.840103</v>
+        <v>122.757401</v>
       </c>
       <c r="G41">
-        <v>2188500</v>
+        <v>2775800</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45019</v>
+        <v>45015</v>
       </c>
       <c r="B42">
-        <v>130.229996</v>
+        <v>129.11000100000001</v>
       </c>
       <c r="C42">
-        <v>130.949997</v>
+        <v>129.470001</v>
       </c>
       <c r="D42">
-        <v>129.979996</v>
+        <v>128.16999799999999</v>
       </c>
       <c r="E42">
-        <v>130.94000199999999</v>
+        <v>128.46000699999999</v>
       </c>
       <c r="F42">
-        <v>125.45938099999999</v>
+        <v>123.08318300000001</v>
       </c>
       <c r="G42">
-        <v>4232800</v>
+        <v>1924500</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="B43">
-        <v>131.64999399999999</v>
+        <v>128.529999</v>
       </c>
       <c r="C43">
-        <v>131.820007</v>
+        <v>129.300003</v>
       </c>
       <c r="D43">
-        <v>129.36000100000001</v>
+        <v>128.529999</v>
       </c>
       <c r="E43">
-        <v>130.46000699999999</v>
+        <v>129.25</v>
       </c>
       <c r="F43">
-        <v>124.999458</v>
+        <v>123.840103</v>
       </c>
       <c r="G43">
-        <v>3007400</v>
+        <v>2188500</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45021</v>
+        <v>45019</v>
       </c>
       <c r="B44">
-        <v>130.11000100000001</v>
+        <v>130.229996</v>
       </c>
       <c r="C44">
-        <v>130.529999</v>
+        <v>130.949997</v>
       </c>
       <c r="D44">
-        <v>129.41000399999999</v>
+        <v>129.979996</v>
       </c>
       <c r="E44">
-        <v>130.33000200000001</v>
+        <v>130.94000199999999</v>
       </c>
       <c r="F44">
-        <v>124.874908</v>
+        <v>125.45938099999999</v>
       </c>
       <c r="G44">
-        <v>3150700</v>
+        <v>4232800</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45022</v>
+        <v>45020</v>
       </c>
       <c r="B45">
-        <v>130.009995</v>
+        <v>131.64999399999999</v>
       </c>
       <c r="C45">
-        <v>130.800003</v>
+        <v>131.820007</v>
       </c>
       <c r="D45">
-        <v>129.679993</v>
+        <v>129.36000100000001</v>
       </c>
       <c r="E45">
-        <v>130.550003</v>
+        <v>130.46000699999999</v>
       </c>
       <c r="F45">
-        <v>125.08571600000001</v>
+        <v>124.999458</v>
       </c>
       <c r="G45">
-        <v>4126100</v>
+        <v>3007400</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45026</v>
+        <v>45021</v>
       </c>
       <c r="B46">
-        <v>130.25</v>
+        <v>130.11000100000001</v>
       </c>
       <c r="C46">
-        <v>131.61000100000001</v>
+        <v>130.529999</v>
       </c>
       <c r="D46">
-        <v>130.05999800000001</v>
+        <v>129.41000399999999</v>
       </c>
       <c r="E46">
-        <v>131.16999799999999</v>
+        <v>130.33000200000001</v>
       </c>
       <c r="F46">
-        <v>125.679749</v>
+        <v>124.874908</v>
       </c>
       <c r="G46">
-        <v>4172600</v>
+        <v>3150700</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45027</v>
+        <v>45022</v>
       </c>
       <c r="B47">
-        <v>131.449997</v>
+        <v>130.009995</v>
       </c>
       <c r="C47">
-        <v>132.570007</v>
+        <v>130.800003</v>
       </c>
       <c r="D47">
-        <v>131.429993</v>
+        <v>129.679993</v>
       </c>
       <c r="E47">
-        <v>131.779999</v>
+        <v>130.550003</v>
       </c>
       <c r="F47">
-        <v>126.26422100000001</v>
+        <v>125.08571600000001</v>
       </c>
       <c r="G47">
-        <v>3337300</v>
+        <v>4126100</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45028</v>
+        <v>45026</v>
       </c>
       <c r="B48">
-        <v>132.44000199999999</v>
+        <v>130.25</v>
       </c>
       <c r="C48">
-        <v>132.720001</v>
+        <v>131.61000100000001</v>
       </c>
       <c r="D48">
-        <v>131.13999899999999</v>
+        <v>130.05999800000001</v>
       </c>
       <c r="E48">
-        <v>131.86999499999999</v>
+        <v>131.16999799999999</v>
       </c>
       <c r="F48">
-        <v>126.350449</v>
+        <v>125.679749</v>
       </c>
       <c r="G48">
-        <v>7846600</v>
+        <v>4172600</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45029</v>
+        <v>45027</v>
       </c>
       <c r="B49">
-        <v>131.91999799999999</v>
+        <v>131.449997</v>
       </c>
       <c r="C49">
-        <v>132.199997</v>
+        <v>132.570007</v>
       </c>
       <c r="D49">
-        <v>131.13000500000001</v>
+        <v>131.429993</v>
       </c>
       <c r="E49">
-        <v>132.08999600000001</v>
+        <v>131.779999</v>
       </c>
       <c r="F49">
-        <v>126.561234</v>
+        <v>126.26422100000001</v>
       </c>
       <c r="G49">
-        <v>2898500</v>
+        <v>3337300</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45030</v>
+        <v>45028</v>
       </c>
       <c r="B50">
-        <v>133.16999799999999</v>
+        <v>132.44000199999999</v>
       </c>
       <c r="C50">
-        <v>133.60000600000001</v>
+        <v>132.720001</v>
       </c>
       <c r="D50">
-        <v>132.58999600000001</v>
+        <v>131.13999899999999</v>
       </c>
       <c r="E50">
-        <v>132.78999300000001</v>
+        <v>131.86999499999999</v>
       </c>
       <c r="F50">
-        <v>127.231926</v>
+        <v>126.350449</v>
       </c>
       <c r="G50">
-        <v>8465100</v>
+        <v>7846600</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45033</v>
+        <v>45029</v>
       </c>
       <c r="B51">
-        <v>132.60000600000001</v>
+        <v>131.91999799999999</v>
       </c>
       <c r="C51">
-        <v>133.58000200000001</v>
+        <v>132.199997</v>
       </c>
       <c r="D51">
-        <v>132.28999300000001</v>
+        <v>131.13000500000001</v>
       </c>
       <c r="E51">
-        <v>133.529999</v>
+        <v>132.08999600000001</v>
       </c>
       <c r="F51">
-        <v>127.94096399999999</v>
+        <v>126.561234</v>
       </c>
       <c r="G51">
-        <v>8318700</v>
+        <v>2898500</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45034</v>
+        <v>45030</v>
       </c>
       <c r="B52">
-        <v>133.88000500000001</v>
+        <v>133.16999799999999</v>
       </c>
       <c r="C52">
-        <v>134.66999799999999</v>
+        <v>133.60000600000001</v>
       </c>
       <c r="D52">
-        <v>133.570007</v>
+        <v>132.58999600000001</v>
       </c>
       <c r="E52">
-        <v>134.28999300000001</v>
+        <v>132.78999300000001</v>
       </c>
       <c r="F52">
-        <v>128.66915900000001</v>
+        <v>127.231926</v>
       </c>
       <c r="G52">
-        <v>11379900</v>
+        <v>8465100</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45035</v>
+        <v>45033</v>
       </c>
       <c r="B53">
-        <v>134.179993</v>
+        <v>132.60000600000001</v>
       </c>
       <c r="C53">
-        <v>134.88000500000001</v>
+        <v>133.58000200000001</v>
       </c>
       <c r="D53">
-        <v>133.89999399999999</v>
+        <v>132.28999300000001</v>
       </c>
       <c r="E53">
-        <v>134.69000199999999</v>
+        <v>133.529999</v>
       </c>
       <c r="F53">
-        <v>129.052414</v>
+        <v>127.94096399999999</v>
       </c>
       <c r="G53">
-        <v>4391900</v>
+        <v>8318700</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45036</v>
+        <v>45034</v>
       </c>
       <c r="B54">
-        <v>134</v>
+        <v>133.88000500000001</v>
       </c>
       <c r="C54">
-        <v>134.949997</v>
+        <v>134.66999799999999</v>
       </c>
       <c r="D54">
-        <v>134</v>
+        <v>133.570007</v>
       </c>
       <c r="E54">
-        <v>134.75</v>
+        <v>134.28999300000001</v>
       </c>
       <c r="F54">
-        <v>129.10990899999999</v>
+        <v>128.66915900000001</v>
       </c>
       <c r="G54">
-        <v>4026200</v>
+        <v>11379900</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45037</v>
+        <v>45035</v>
       </c>
       <c r="B55">
-        <v>134.759995</v>
+        <v>134.179993</v>
       </c>
       <c r="C55">
-        <v>135.39999399999999</v>
+        <v>134.88000500000001</v>
       </c>
       <c r="D55">
-        <v>134.05999800000001</v>
+        <v>133.89999399999999</v>
       </c>
       <c r="E55">
-        <v>135.300003</v>
+        <v>134.69000199999999</v>
       </c>
       <c r="F55">
-        <v>129.63687100000001</v>
+        <v>129.052414</v>
       </c>
       <c r="G55">
-        <v>6370800</v>
+        <v>4391900</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45040</v>
+        <v>45036</v>
       </c>
       <c r="B56">
-        <v>134.220001</v>
+        <v>134</v>
       </c>
       <c r="C56">
-        <v>134.229996</v>
+        <v>134.949997</v>
       </c>
       <c r="D56">
-        <v>133.05999800000001</v>
+        <v>134</v>
       </c>
       <c r="E56">
-        <v>133.470001</v>
+        <v>134.75</v>
       </c>
       <c r="F56">
-        <v>129.143417</v>
+        <v>129.10990899999999</v>
       </c>
       <c r="G56">
-        <v>16872800</v>
+        <v>4026200</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45041</v>
+        <v>45037</v>
       </c>
       <c r="B57">
-        <v>133.449997</v>
+        <v>134.759995</v>
       </c>
       <c r="C57">
-        <v>133.820007</v>
+        <v>135.39999399999999</v>
       </c>
       <c r="D57">
-        <v>131.259995</v>
+        <v>134.05999800000001</v>
       </c>
       <c r="E57">
-        <v>131.759995</v>
+        <v>135.300003</v>
       </c>
       <c r="F57">
-        <v>127.488831</v>
+        <v>129.63687100000001</v>
       </c>
       <c r="G57">
-        <v>8851700</v>
+        <v>6370800</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45042</v>
+        <v>45040</v>
       </c>
       <c r="B58">
-        <v>131.729996</v>
+        <v>134.220001</v>
       </c>
       <c r="C58">
-        <v>132.550003</v>
+        <v>134.229996</v>
       </c>
       <c r="D58">
-        <v>131.08000200000001</v>
+        <v>133.05999800000001</v>
       </c>
       <c r="E58">
-        <v>132.229996</v>
+        <v>133.470001</v>
       </c>
       <c r="F58">
-        <v>127.943619</v>
+        <v>129.143417</v>
       </c>
       <c r="G58">
-        <v>8494800</v>
+        <v>16872800</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45043</v>
+        <v>45041</v>
       </c>
       <c r="B59">
-        <v>132.729996</v>
+        <v>133.449997</v>
       </c>
       <c r="C59">
-        <v>134.05999800000001</v>
+        <v>133.820007</v>
       </c>
       <c r="D59">
-        <v>132.61999499999999</v>
+        <v>131.259995</v>
       </c>
       <c r="E59">
-        <v>133.78999300000001</v>
+        <v>131.759995</v>
       </c>
       <c r="F59">
-        <v>129.453033</v>
+        <v>127.488831</v>
       </c>
       <c r="G59">
-        <v>5372300</v>
+        <v>8851700</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45044</v>
+        <v>45042</v>
       </c>
       <c r="B60">
-        <v>133.28999300000001</v>
+        <v>131.729996</v>
       </c>
       <c r="C60">
-        <v>134.53999300000001</v>
+        <v>132.550003</v>
       </c>
       <c r="D60">
-        <v>133.199997</v>
+        <v>131.08000200000001</v>
       </c>
       <c r="E60">
-        <v>134.509995</v>
+        <v>132.229996</v>
       </c>
       <c r="F60">
-        <v>130.14970400000001</v>
+        <v>127.943619</v>
       </c>
       <c r="G60">
-        <v>4844000</v>
+        <v>8494800</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45047</v>
+        <v>45043</v>
       </c>
       <c r="B61">
-        <v>134.85000600000001</v>
+        <v>132.729996</v>
       </c>
       <c r="C61">
-        <v>135.35000600000001</v>
+        <v>134.05999800000001</v>
       </c>
       <c r="D61">
-        <v>134.270004</v>
+        <v>132.61999499999999</v>
       </c>
       <c r="E61">
-        <v>134.36999499999999</v>
+        <v>133.78999300000001</v>
       </c>
       <c r="F61">
-        <v>130.01422099999999</v>
+        <v>129.453033</v>
       </c>
       <c r="G61">
-        <v>6137300</v>
+        <v>5372300</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45048</v>
+        <v>45044</v>
       </c>
       <c r="B62">
-        <v>134.199997</v>
+        <v>133.28999300000001</v>
       </c>
       <c r="C62">
-        <v>134.199997</v>
+        <v>134.53999300000001</v>
       </c>
       <c r="D62">
-        <v>130.91000399999999</v>
+        <v>133.199997</v>
       </c>
       <c r="E62">
-        <v>131.44000199999999</v>
+        <v>134.509995</v>
       </c>
       <c r="F62">
-        <v>127.179222</v>
+        <v>130.14970400000001</v>
       </c>
       <c r="G62">
-        <v>4395200</v>
+        <v>4844000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45049</v>
+        <v>45047</v>
       </c>
       <c r="B63">
-        <v>131.279999</v>
+        <v>134.85000600000001</v>
       </c>
       <c r="C63">
-        <v>132.429993</v>
+        <v>135.35000600000001</v>
       </c>
       <c r="D63">
-        <v>131.020004</v>
+        <v>134.270004</v>
       </c>
       <c r="E63">
-        <v>131.11999499999999</v>
+        <v>134.36999499999999</v>
       </c>
       <c r="F63">
-        <v>126.86958300000001</v>
+        <v>130.01422099999999</v>
       </c>
       <c r="G63">
-        <v>2655100</v>
+        <v>6137300</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45050</v>
+        <v>45048</v>
       </c>
       <c r="B64">
-        <v>130.179993</v>
+        <v>134.199997</v>
       </c>
       <c r="C64">
-        <v>130.19000199999999</v>
+        <v>134.199997</v>
       </c>
       <c r="D64">
-        <v>128.5</v>
+        <v>130.91000399999999</v>
       </c>
       <c r="E64">
-        <v>129.270004</v>
+        <v>131.44000199999999</v>
       </c>
       <c r="F64">
-        <v>125.079559</v>
+        <v>127.179222</v>
       </c>
       <c r="G64">
-        <v>2220500</v>
+        <v>4395200</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45051</v>
+        <v>45049</v>
       </c>
       <c r="B65">
-        <v>130.820007</v>
+        <v>131.279999</v>
       </c>
       <c r="C65">
-        <v>131.199997</v>
+        <v>132.429993</v>
       </c>
       <c r="D65">
-        <v>130.020004</v>
+        <v>131.020004</v>
       </c>
       <c r="E65">
-        <v>131.08000200000001</v>
+        <v>131.11999499999999</v>
       </c>
       <c r="F65">
-        <v>126.830887</v>
+        <v>126.86958300000001</v>
       </c>
       <c r="G65">
-        <v>2624400</v>
+        <v>2655100</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45054</v>
+        <v>45050</v>
       </c>
       <c r="B66">
-        <v>131.19000199999999</v>
+        <v>130.179993</v>
       </c>
       <c r="C66">
-        <v>132.229996</v>
+        <v>130.19000199999999</v>
       </c>
       <c r="D66">
-        <v>130.91000399999999</v>
+        <v>128.5</v>
       </c>
       <c r="E66">
-        <v>131.35000600000001</v>
+        <v>129.270004</v>
       </c>
       <c r="F66">
-        <v>127.09215500000001</v>
+        <v>125.079559</v>
       </c>
       <c r="G66">
-        <v>4847500</v>
+        <v>2220500</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45055</v>
+        <v>45051</v>
       </c>
       <c r="B67">
-        <v>130.029999</v>
+        <v>130.820007</v>
       </c>
       <c r="C67">
-        <v>130.38999899999999</v>
+        <v>131.199997</v>
       </c>
       <c r="D67">
-        <v>128.63999899999999</v>
+        <v>130.020004</v>
       </c>
       <c r="E67">
-        <v>129.429993</v>
+        <v>131.08000200000001</v>
       </c>
       <c r="F67">
-        <v>125.234375</v>
+        <v>126.830887</v>
       </c>
       <c r="G67">
-        <v>2600500</v>
+        <v>2624400</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45056</v>
+        <v>45054</v>
       </c>
       <c r="B68">
-        <v>129.63999899999999</v>
+        <v>131.19000199999999</v>
       </c>
       <c r="C68">
-        <v>129.88000500000001</v>
+        <v>132.229996</v>
       </c>
       <c r="D68">
-        <v>128.13000500000001</v>
+        <v>130.91000399999999</v>
       </c>
       <c r="E68">
-        <v>128.96000699999999</v>
+        <v>131.35000600000001</v>
       </c>
       <c r="F68">
-        <v>124.779617</v>
+        <v>127.09215500000001</v>
       </c>
       <c r="G68">
-        <v>4930700</v>
+        <v>4847500</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45057</v>
+        <v>45055</v>
       </c>
       <c r="B69">
-        <v>128.96000699999999</v>
+        <v>130.029999</v>
       </c>
       <c r="C69">
-        <v>129.94000199999999</v>
+        <v>130.38999899999999</v>
       </c>
       <c r="D69">
-        <v>128.490005</v>
+        <v>128.63999899999999</v>
       </c>
       <c r="E69">
-        <v>129.83999600000001</v>
+        <v>129.429993</v>
       </c>
       <c r="F69">
-        <v>125.63108800000001</v>
+        <v>125.234375</v>
       </c>
       <c r="G69">
-        <v>2851600</v>
+        <v>2600500</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45058</v>
+        <v>45056</v>
       </c>
       <c r="B70">
-        <v>130.300003</v>
+        <v>129.63999899999999</v>
       </c>
       <c r="C70">
-        <v>130.740005</v>
+        <v>129.88000500000001</v>
       </c>
       <c r="D70">
-        <v>129.35000600000001</v>
+        <v>128.13000500000001</v>
       </c>
       <c r="E70">
-        <v>129.88999899999999</v>
+        <v>128.96000699999999</v>
       </c>
       <c r="F70">
-        <v>125.67946600000001</v>
+        <v>124.779617</v>
       </c>
       <c r="G70">
-        <v>2317900</v>
+        <v>4930700</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45061</v>
+        <v>45057</v>
       </c>
       <c r="B71">
-        <v>129.820007</v>
+        <v>128.96000699999999</v>
       </c>
       <c r="C71">
-        <v>131.009995</v>
+        <v>129.94000199999999</v>
       </c>
       <c r="D71">
-        <v>129.800003</v>
+        <v>128.490005</v>
       </c>
       <c r="E71">
-        <v>130.91999799999999</v>
+        <v>129.83999600000001</v>
       </c>
       <c r="F71">
-        <v>126.67607099999999</v>
+        <v>125.63108800000001</v>
       </c>
       <c r="G71">
-        <v>6590700</v>
+        <v>2851600</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45062</v>
+        <v>45058</v>
       </c>
       <c r="B72">
-        <v>129.33000200000001</v>
+        <v>130.300003</v>
       </c>
       <c r="C72">
-        <v>130.270004</v>
+        <v>130.740005</v>
       </c>
       <c r="D72">
-        <v>128.070007</v>
+        <v>129.35000600000001</v>
       </c>
       <c r="E72">
-        <v>128.300003</v>
+        <v>129.88999899999999</v>
       </c>
       <c r="F72">
-        <v>124.141006</v>
+        <v>125.67946600000001</v>
       </c>
       <c r="G72">
-        <v>6014200</v>
+        <v>2317900</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45063</v>
+        <v>45061</v>
       </c>
       <c r="B73">
-        <v>128.55999800000001</v>
+        <v>129.820007</v>
       </c>
       <c r="C73">
-        <v>128.88999899999999</v>
+        <v>131.009995</v>
       </c>
       <c r="D73">
-        <v>127.83000199999999</v>
+        <v>129.800003</v>
       </c>
       <c r="E73">
-        <v>128.61999499999999</v>
+        <v>130.91999799999999</v>
       </c>
       <c r="F73">
-        <v>124.45063</v>
+        <v>126.67607099999999</v>
       </c>
       <c r="G73">
-        <v>3645300</v>
+        <v>6590700</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="B74">
-        <v>128.58999600000001</v>
+        <v>129.33000200000001</v>
       </c>
       <c r="C74">
-        <v>128.66999799999999</v>
+        <v>130.270004</v>
       </c>
       <c r="D74">
-        <v>127.139999</v>
+        <v>128.070007</v>
       </c>
       <c r="E74">
-        <v>127.900002</v>
+        <v>128.300003</v>
       </c>
       <c r="F74">
-        <v>123.753975</v>
+        <v>124.141006</v>
       </c>
       <c r="G74">
-        <v>4477700</v>
+        <v>6014200</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45065</v>
+        <v>45063</v>
       </c>
       <c r="B75">
-        <v>128.179993</v>
+        <v>128.55999800000001</v>
       </c>
       <c r="C75">
-        <v>128.490005</v>
+        <v>128.88999899999999</v>
       </c>
       <c r="D75">
-        <v>126.849998</v>
+        <v>127.83000199999999</v>
       </c>
       <c r="E75">
-        <v>127.19000200000001</v>
+        <v>128.61999499999999</v>
       </c>
       <c r="F75">
-        <v>123.066986</v>
+        <v>124.45063</v>
       </c>
       <c r="G75">
-        <v>4390000</v>
+        <v>3645300</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45069</v>
+        <v>45064</v>
       </c>
       <c r="B76">
-        <v>126.779999</v>
+        <v>128.58999600000001</v>
       </c>
       <c r="C76">
-        <v>127.209999</v>
+        <v>128.66999799999999</v>
       </c>
       <c r="D76">
-        <v>125.879997</v>
+        <v>127.139999</v>
       </c>
       <c r="E76">
-        <v>125.879997</v>
+        <v>127.900002</v>
       </c>
       <c r="F76">
-        <v>121.799454</v>
+        <v>123.753975</v>
       </c>
       <c r="G76">
-        <v>5225900</v>
+        <v>4477700</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45070</v>
+        <v>45065</v>
       </c>
       <c r="B77">
-        <v>124.93</v>
+        <v>128.179993</v>
       </c>
       <c r="C77">
-        <v>125</v>
+        <v>128.490005</v>
       </c>
       <c r="D77">
-        <v>123.120003</v>
+        <v>126.849998</v>
       </c>
       <c r="E77">
-        <v>123.75</v>
+        <v>127.19000200000001</v>
       </c>
       <c r="F77">
-        <v>119.73850299999999</v>
+        <v>123.066986</v>
       </c>
       <c r="G77">
-        <v>3552100</v>
+        <v>4390000</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45071</v>
+        <v>45069</v>
       </c>
       <c r="B78">
-        <v>122.470001</v>
+        <v>126.779999</v>
       </c>
       <c r="C78">
-        <v>123.709999</v>
+        <v>127.209999</v>
       </c>
       <c r="D78">
-        <v>120.099998</v>
+        <v>125.879997</v>
       </c>
       <c r="E78">
-        <v>121.480003</v>
+        <v>125.879997</v>
       </c>
       <c r="F78">
-        <v>117.542084</v>
+        <v>121.799454</v>
       </c>
       <c r="G78">
-        <v>4354700</v>
+        <v>5225900</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45072</v>
+        <v>45070</v>
       </c>
       <c r="B79">
-        <v>121.75</v>
+        <v>124.93</v>
       </c>
       <c r="C79">
-        <v>123.489998</v>
+        <v>125</v>
       </c>
       <c r="D79">
-        <v>121.199997</v>
+        <v>123.120003</v>
       </c>
       <c r="E79">
-        <v>123.08000199999999</v>
+        <v>123.75</v>
       </c>
       <c r="F79">
-        <v>119.09021799999999</v>
+        <v>119.73850299999999</v>
       </c>
       <c r="G79">
-        <v>2550100</v>
+        <v>3552100</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45075</v>
+        <v>45071</v>
       </c>
       <c r="B80">
-        <v>123.470001</v>
+        <v>122.470001</v>
       </c>
       <c r="C80">
-        <v>123.879997</v>
+        <v>123.709999</v>
       </c>
       <c r="D80">
-        <v>123.19000200000001</v>
+        <v>120.099998</v>
       </c>
       <c r="E80">
-        <v>123.489998</v>
+        <v>121.480003</v>
       </c>
       <c r="F80">
-        <v>119.486931</v>
+        <v>117.542084</v>
       </c>
       <c r="G80">
-        <v>525300</v>
+        <v>4354700</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="B81">
-        <v>123.150002</v>
+        <v>121.75</v>
       </c>
       <c r="C81">
-        <v>123.639999</v>
+        <v>123.489998</v>
       </c>
       <c r="D81">
-        <v>122.58000199999999</v>
+        <v>121.199997</v>
       </c>
       <c r="E81">
-        <v>123.110001</v>
+        <v>123.08000199999999</v>
       </c>
       <c r="F81">
-        <v>119.119247</v>
+        <v>119.09021799999999</v>
       </c>
       <c r="G81">
-        <v>2464800</v>
+        <v>2550100</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45077</v>
+        <v>45075</v>
       </c>
       <c r="B82">
-        <v>122.849998</v>
+        <v>123.470001</v>
       </c>
       <c r="C82">
-        <v>123</v>
+        <v>123.879997</v>
       </c>
       <c r="D82">
-        <v>121.209999</v>
+        <v>123.19000200000001</v>
       </c>
       <c r="E82">
-        <v>121.43</v>
+        <v>123.489998</v>
       </c>
       <c r="F82">
-        <v>117.493706</v>
+        <v>119.486931</v>
       </c>
       <c r="G82">
-        <v>3749600</v>
+        <v>525300</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45078</v>
+        <v>45076</v>
       </c>
       <c r="B83">
-        <v>121.470001</v>
+        <v>123.150002</v>
       </c>
       <c r="C83">
-        <v>122.410004</v>
+        <v>123.639999</v>
       </c>
       <c r="D83">
-        <v>120.970001</v>
+        <v>122.58000199999999</v>
       </c>
       <c r="E83">
-        <v>121.589996</v>
+        <v>123.110001</v>
       </c>
       <c r="F83">
-        <v>117.64851400000001</v>
+        <v>119.119247</v>
       </c>
       <c r="G83">
-        <v>4557800</v>
+        <v>2464800</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="B84">
-        <v>122.089996</v>
+        <v>122.849998</v>
       </c>
       <c r="C84">
-        <v>124.260002</v>
+        <v>123</v>
       </c>
       <c r="D84">
-        <v>122.089996</v>
+        <v>121.209999</v>
       </c>
       <c r="E84">
-        <v>124.05999799999999</v>
+        <v>121.43</v>
       </c>
       <c r="F84">
-        <v>120.038445</v>
+        <v>117.493706</v>
       </c>
       <c r="G84">
-        <v>3440500</v>
+        <v>3749600</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="B85">
-        <v>124.5</v>
+        <v>121.470001</v>
       </c>
       <c r="C85">
-        <v>124.779999</v>
+        <v>122.410004</v>
       </c>
       <c r="D85">
-        <v>122.720001</v>
+        <v>120.970001</v>
       </c>
       <c r="E85">
-        <v>122.91999800000001</v>
+        <v>121.589996</v>
       </c>
       <c r="F85">
-        <v>118.93541</v>
+        <v>117.64851400000001</v>
       </c>
       <c r="G85">
-        <v>2500100</v>
+        <v>4557800</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45083</v>
+        <v>45079</v>
       </c>
       <c r="B86">
-        <v>122.769997</v>
+        <v>122.089996</v>
       </c>
       <c r="C86">
-        <v>123.800003</v>
+        <v>124.260002</v>
       </c>
       <c r="D86">
-        <v>122.300003</v>
+        <v>122.089996</v>
       </c>
       <c r="E86">
-        <v>123.709999</v>
+        <v>124.05999799999999</v>
       </c>
       <c r="F86">
-        <v>119.699791</v>
+        <v>120.038445</v>
       </c>
       <c r="G86">
-        <v>1155000</v>
+        <v>3440500</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45084</v>
+        <v>45082</v>
       </c>
       <c r="B87">
-        <v>123.620003</v>
+        <v>124.5</v>
       </c>
       <c r="C87">
-        <v>123.849998</v>
+        <v>124.779999</v>
       </c>
       <c r="D87">
-        <v>122.5</v>
+        <v>122.720001</v>
       </c>
       <c r="E87">
-        <v>123.089996</v>
+        <v>122.91999800000001</v>
       </c>
       <c r="F87">
-        <v>119.099892</v>
+        <v>118.93541</v>
       </c>
       <c r="G87">
-        <v>1170100</v>
+        <v>2500100</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="B88">
-        <v>122.959999</v>
+        <v>122.769997</v>
       </c>
       <c r="C88">
-        <v>123.68</v>
+        <v>123.800003</v>
       </c>
       <c r="D88">
-        <v>122.160004</v>
+        <v>122.300003</v>
       </c>
       <c r="E88">
-        <v>123.300003</v>
+        <v>123.709999</v>
       </c>
       <c r="F88">
-        <v>119.303093</v>
+        <v>119.699791</v>
       </c>
       <c r="G88">
-        <v>1934100</v>
+        <v>1155000</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45086</v>
+        <v>45084</v>
       </c>
       <c r="B89">
-        <v>123.339996</v>
+        <v>123.620003</v>
       </c>
       <c r="C89">
-        <v>124.010002</v>
+        <v>123.849998</v>
       </c>
       <c r="D89">
-        <v>122.900002</v>
+        <v>122.5</v>
       </c>
       <c r="E89">
-        <v>123.889999</v>
+        <v>123.089996</v>
       </c>
       <c r="F89">
-        <v>119.87396200000001</v>
+        <v>119.099892</v>
       </c>
       <c r="G89">
-        <v>1228000</v>
+        <v>1170100</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="B90">
-        <v>123.720001</v>
+        <v>122.959999</v>
       </c>
       <c r="C90">
-        <v>124.110001</v>
+        <v>123.68</v>
       </c>
       <c r="D90">
-        <v>123.230003</v>
+        <v>122.160004</v>
       </c>
       <c r="E90">
-        <v>123.970001</v>
+        <v>123.300003</v>
       </c>
       <c r="F90">
-        <v>119.951363</v>
+        <v>119.303093</v>
       </c>
       <c r="G90">
-        <v>1337300</v>
+        <v>1934100</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="B91">
-        <v>124.19000200000001</v>
+        <v>123.339996</v>
       </c>
       <c r="C91">
-        <v>125.370003</v>
+        <v>124.010002</v>
       </c>
       <c r="D91">
-        <v>124</v>
+        <v>122.900002</v>
       </c>
       <c r="E91">
-        <v>124.82</v>
+        <v>123.889999</v>
       </c>
       <c r="F91">
-        <v>120.77381099999999</v>
+        <v>119.87396200000001</v>
       </c>
       <c r="G91">
-        <v>1510400</v>
+        <v>1228000</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="B92">
-        <v>125.25</v>
+        <v>123.720001</v>
       </c>
       <c r="C92">
-        <v>125.800003</v>
+        <v>124.110001</v>
       </c>
       <c r="D92">
-        <v>124.800003</v>
+        <v>123.230003</v>
       </c>
       <c r="E92">
-        <v>125.18</v>
+        <v>123.970001</v>
       </c>
       <c r="F92">
-        <v>121.122139</v>
+        <v>119.951363</v>
       </c>
       <c r="G92">
-        <v>1713300</v>
+        <v>1337300</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="B93">
-        <v>125.349998</v>
+        <v>124.19000200000001</v>
       </c>
       <c r="C93">
-        <v>125.980003</v>
+        <v>125.370003</v>
       </c>
       <c r="D93">
-        <v>124.910004</v>
+        <v>124</v>
       </c>
       <c r="E93">
-        <v>125.83000199999999</v>
+        <v>124.82</v>
       </c>
       <c r="F93">
-        <v>121.751076</v>
+        <v>120.77381099999999</v>
       </c>
       <c r="G93">
-        <v>1573400</v>
+        <v>1510400</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="B94">
-        <v>125.989998</v>
+        <v>125.25</v>
       </c>
       <c r="C94">
-        <v>126.860001</v>
+        <v>125.800003</v>
       </c>
       <c r="D94">
-        <v>125.760002</v>
+        <v>124.800003</v>
       </c>
       <c r="E94">
-        <v>125.879997</v>
+        <v>125.18</v>
       </c>
       <c r="F94">
-        <v>121.799454</v>
+        <v>121.122139</v>
       </c>
       <c r="G94">
-        <v>7283200</v>
+        <v>1713300</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45096</v>
+        <v>45092</v>
       </c>
       <c r="B95">
-        <v>125.849998</v>
+        <v>125.349998</v>
       </c>
       <c r="C95">
-        <v>125.959999</v>
+        <v>125.980003</v>
       </c>
       <c r="D95">
-        <v>125.25</v>
+        <v>124.910004</v>
       </c>
       <c r="E95">
-        <v>125.360001</v>
+        <v>125.83000199999999</v>
       </c>
       <c r="F95">
-        <v>121.296318</v>
+        <v>121.751076</v>
       </c>
       <c r="G95">
-        <v>425000</v>
+        <v>1573400</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="B96">
-        <v>125.08000199999999</v>
+        <v>125.989998</v>
       </c>
       <c r="C96">
-        <v>125.199997</v>
+        <v>126.860001</v>
       </c>
       <c r="D96">
-        <v>124.41999800000001</v>
+        <v>125.760002</v>
       </c>
       <c r="E96">
-        <v>124.760002</v>
+        <v>125.879997</v>
       </c>
       <c r="F96">
-        <v>120.715767</v>
+        <v>121.799454</v>
       </c>
       <c r="G96">
-        <v>2692300</v>
+        <v>7283200</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45098</v>
+        <v>45096</v>
       </c>
       <c r="B97">
-        <v>124.449997</v>
+        <v>125.849998</v>
       </c>
       <c r="C97">
-        <v>125.230003</v>
+        <v>125.959999</v>
       </c>
       <c r="D97">
-        <v>124.160004</v>
+        <v>125.25</v>
       </c>
       <c r="E97">
-        <v>124.589996</v>
+        <v>125.360001</v>
       </c>
       <c r="F97">
-        <v>120.55126199999999</v>
+        <v>121.296318</v>
       </c>
       <c r="G97">
-        <v>2248600</v>
+        <v>425000</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45099</v>
+        <v>45097</v>
       </c>
       <c r="B98">
-        <v>124.239998</v>
+        <v>125.08000199999999</v>
       </c>
       <c r="C98">
-        <v>124.66999800000001</v>
+        <v>125.199997</v>
       </c>
       <c r="D98">
-        <v>123.360001</v>
+        <v>124.41999800000001</v>
       </c>
       <c r="E98">
-        <v>123.610001</v>
+        <v>124.760002</v>
       </c>
       <c r="F98">
-        <v>119.60303500000001</v>
+        <v>120.715767</v>
       </c>
       <c r="G98">
-        <v>2001500</v>
+        <v>2692300</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45100</v>
+        <v>45098</v>
       </c>
       <c r="B99">
-        <v>123.019997</v>
+        <v>124.449997</v>
       </c>
       <c r="C99">
-        <v>123.18</v>
+        <v>125.230003</v>
       </c>
       <c r="D99">
-        <v>122.199997</v>
+        <v>124.160004</v>
       </c>
       <c r="E99">
-        <v>122.32</v>
+        <v>124.589996</v>
       </c>
       <c r="F99">
-        <v>118.35485799999999</v>
+        <v>120.55126199999999</v>
       </c>
       <c r="G99">
-        <v>1985800</v>
+        <v>2248600</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="B100">
-        <v>122.160004</v>
+        <v>124.239998</v>
       </c>
       <c r="C100">
-        <v>124.050003</v>
+        <v>124.66999800000001</v>
       </c>
       <c r="D100">
-        <v>122.139999</v>
+        <v>123.360001</v>
       </c>
       <c r="E100">
-        <v>123.620003</v>
+        <v>123.610001</v>
       </c>
       <c r="F100">
-        <v>119.612717</v>
+        <v>119.60303500000001</v>
       </c>
       <c r="G100">
-        <v>4121600</v>
+        <v>2001500</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45104</v>
+        <v>45100</v>
       </c>
       <c r="B101">
-        <v>123.94000200000001</v>
+        <v>123.019997</v>
       </c>
       <c r="C101">
-        <v>125.55999799999999</v>
+        <v>123.18</v>
       </c>
       <c r="D101">
-        <v>123.849998</v>
+        <v>122.199997</v>
       </c>
       <c r="E101">
-        <v>125.230003</v>
+        <v>122.32</v>
       </c>
       <c r="F101">
-        <v>121.170525</v>
+        <v>118.35485799999999</v>
       </c>
       <c r="G101">
-        <v>2109100</v>
+        <v>1985800</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45105</v>
+        <v>45103</v>
       </c>
       <c r="B102">
-        <v>125.629997</v>
+        <v>122.160004</v>
       </c>
       <c r="C102">
-        <v>125.739998</v>
+        <v>124.050003</v>
       </c>
       <c r="D102">
-        <v>124.260002</v>
+        <v>122.139999</v>
       </c>
       <c r="E102">
-        <v>124.91999800000001</v>
+        <v>123.620003</v>
       </c>
       <c r="F102">
-        <v>120.870575</v>
+        <v>119.612717</v>
       </c>
       <c r="G102">
-        <v>1824400</v>
+        <v>4121600</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="B103">
-        <v>125.019997</v>
+        <v>123.94000200000001</v>
       </c>
       <c r="C103">
-        <v>125.82</v>
+        <v>125.55999799999999</v>
       </c>
       <c r="D103">
-        <v>124.83000199999999</v>
+        <v>123.849998</v>
       </c>
       <c r="E103">
-        <v>125.510002</v>
+        <v>125.230003</v>
       </c>
       <c r="F103">
-        <v>121.441452</v>
+        <v>121.170525</v>
       </c>
       <c r="G103">
-        <v>2730000</v>
+        <v>2109100</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45107</v>
+        <v>45105</v>
       </c>
       <c r="B104">
-        <v>126</v>
+        <v>125.629997</v>
       </c>
       <c r="C104">
-        <v>126.879997</v>
+        <v>125.739998</v>
       </c>
       <c r="D104">
-        <v>126</v>
+        <v>124.260002</v>
       </c>
       <c r="E104">
-        <v>126.519997</v>
+        <v>124.91999800000001</v>
       </c>
       <c r="F104">
-        <v>122.418701</v>
+        <v>120.870575</v>
       </c>
       <c r="G104">
-        <v>3625900</v>
+        <v>1824400</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45111</v>
+        <v>45106</v>
       </c>
       <c r="B105">
-        <v>126.599998</v>
+        <v>125.019997</v>
       </c>
       <c r="C105">
-        <v>127.25</v>
+        <v>125.82</v>
       </c>
       <c r="D105">
-        <v>126.05999799999999</v>
+        <v>124.83000199999999</v>
       </c>
       <c r="E105">
-        <v>126.720001</v>
+        <v>125.510002</v>
       </c>
       <c r="F105">
-        <v>122.61222100000001</v>
+        <v>121.441452</v>
       </c>
       <c r="G105">
-        <v>1749000</v>
+        <v>2730000</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45112</v>
+        <v>45107</v>
       </c>
       <c r="B106">
-        <v>126.589996</v>
+        <v>126</v>
       </c>
       <c r="C106">
-        <v>127.379997</v>
+        <v>126.879997</v>
       </c>
       <c r="D106">
-        <v>126.110001</v>
+        <v>126</v>
       </c>
       <c r="E106">
-        <v>127.08000199999999</v>
+        <v>126.519997</v>
       </c>
       <c r="F106">
-        <v>122.960556</v>
+        <v>122.418701</v>
       </c>
       <c r="G106">
-        <v>4277900</v>
+        <v>3625900</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45113</v>
+        <v>45111</v>
       </c>
       <c r="B107">
-        <v>126.339996</v>
+        <v>126.599998</v>
       </c>
       <c r="C107">
-        <v>126.349998</v>
+        <v>127.25</v>
       </c>
       <c r="D107">
-        <v>125.139999</v>
+        <v>126.05999799999999</v>
       </c>
       <c r="E107">
-        <v>125.510002</v>
+        <v>126.720001</v>
       </c>
       <c r="F107">
-        <v>121.441452</v>
+        <v>122.61222100000001</v>
       </c>
       <c r="G107">
-        <v>3769000</v>
+        <v>1749000</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45114</v>
+        <v>45112</v>
       </c>
       <c r="B108">
-        <v>125.010002</v>
+        <v>126.589996</v>
       </c>
       <c r="C108">
-        <v>126.07</v>
+        <v>127.379997</v>
       </c>
       <c r="D108">
-        <v>124.779999</v>
+        <v>126.110001</v>
       </c>
       <c r="E108">
-        <v>125.519997</v>
+        <v>127.08000199999999</v>
       </c>
       <c r="F108">
-        <v>121.45111799999999</v>
+        <v>122.960556</v>
       </c>
       <c r="G108">
-        <v>4305300</v>
+        <v>4277900</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45117</v>
+        <v>45113</v>
       </c>
       <c r="B109">
-        <v>125.400002</v>
+        <v>126.339996</v>
       </c>
       <c r="C109">
-        <v>125.739998</v>
+        <v>126.349998</v>
       </c>
       <c r="D109">
-        <v>125.120003</v>
+        <v>125.139999</v>
       </c>
       <c r="E109">
-        <v>125.269997</v>
+        <v>125.510002</v>
       </c>
       <c r="F109">
-        <v>121.20922899999999</v>
+        <v>121.441452</v>
       </c>
       <c r="G109">
-        <v>2935000</v>
+        <v>3769000</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45118</v>
+        <v>45114</v>
       </c>
       <c r="B110">
-        <v>125.400002</v>
+        <v>125.010002</v>
       </c>
       <c r="C110">
-        <v>125.849998</v>
+        <v>126.07</v>
       </c>
       <c r="D110">
-        <v>125.050003</v>
+        <v>124.779999</v>
       </c>
       <c r="E110">
-        <v>125.839996</v>
+        <v>125.519997</v>
       </c>
       <c r="F110">
-        <v>121.76074199999999</v>
+        <v>121.45111799999999</v>
       </c>
       <c r="G110">
-        <v>5230700</v>
+        <v>4305300</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45119</v>
+        <v>45117</v>
       </c>
       <c r="B111">
-        <v>126.739998</v>
+        <v>125.400002</v>
       </c>
       <c r="C111">
-        <v>126.739998</v>
+        <v>125.739998</v>
       </c>
       <c r="D111">
-        <v>125.389999</v>
+        <v>125.120003</v>
       </c>
       <c r="E111">
-        <v>126.08000199999999</v>
+        <v>125.269997</v>
       </c>
       <c r="F111">
-        <v>121.99297300000001</v>
+        <v>121.20922899999999</v>
       </c>
       <c r="G111">
-        <v>5612500</v>
+        <v>2935000</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45120</v>
+        <v>45118</v>
       </c>
       <c r="B112">
-        <v>126.239998</v>
+        <v>125.400002</v>
       </c>
       <c r="C112">
-        <v>127.870003</v>
+        <v>125.849998</v>
       </c>
       <c r="D112">
-        <v>126.18</v>
+        <v>125.050003</v>
       </c>
       <c r="E112">
-        <v>127.41999800000001</v>
+        <v>125.839996</v>
       </c>
       <c r="F112">
-        <v>123.28952</v>
+        <v>121.76074199999999</v>
       </c>
       <c r="G112">
-        <v>5820200</v>
+        <v>5230700</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45121</v>
+        <v>45119</v>
       </c>
       <c r="B113">
-        <v>128</v>
+        <v>126.739998</v>
       </c>
       <c r="C113">
-        <v>128.63000500000001</v>
+        <v>126.739998</v>
       </c>
       <c r="D113">
-        <v>127.900002</v>
+        <v>125.389999</v>
       </c>
       <c r="E113">
-        <v>128.11999499999999</v>
+        <v>126.08000199999999</v>
       </c>
       <c r="F113">
-        <v>123.966835</v>
+        <v>121.99297300000001</v>
       </c>
       <c r="G113">
-        <v>5526700</v>
+        <v>5612500</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45124</v>
+        <v>45120</v>
       </c>
       <c r="B114">
-        <v>128.229996</v>
+        <v>126.239998</v>
       </c>
       <c r="C114">
-        <v>129.16000399999999</v>
+        <v>127.870003</v>
       </c>
       <c r="D114">
-        <v>127.739998</v>
+        <v>126.18</v>
       </c>
       <c r="E114">
-        <v>129.070007</v>
+        <v>127.41999800000001</v>
       </c>
       <c r="F114">
-        <v>124.886055</v>
+        <v>123.28952</v>
       </c>
       <c r="G114">
-        <v>4693900</v>
+        <v>5820200</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45125</v>
+        <v>45121</v>
       </c>
       <c r="B115">
-        <v>129.61000100000001</v>
+        <v>128</v>
       </c>
       <c r="C115">
-        <v>130.279999</v>
+        <v>128.63000500000001</v>
       </c>
       <c r="D115">
-        <v>129.13999899999999</v>
+        <v>127.900002</v>
       </c>
       <c r="E115">
-        <v>129.66000399999999</v>
+        <v>128.11999499999999</v>
       </c>
       <c r="F115">
-        <v>125.456917</v>
+        <v>123.966835</v>
       </c>
       <c r="G115">
-        <v>9973900</v>
+        <v>5526700</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45126</v>
+        <v>45124</v>
       </c>
       <c r="B116">
-        <v>129.58999600000001</v>
+        <v>128.229996</v>
       </c>
       <c r="C116">
-        <v>130.46000699999999</v>
+        <v>129.16000399999999</v>
       </c>
       <c r="D116">
-        <v>128.91000399999999</v>
+        <v>127.739998</v>
       </c>
       <c r="E116">
-        <v>130.16999799999999</v>
+        <v>129.070007</v>
       </c>
       <c r="F116">
-        <v>125.950394</v>
+        <v>124.886055</v>
       </c>
       <c r="G116">
-        <v>12686500</v>
+        <v>4693900</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45127</v>
+        <v>45125</v>
       </c>
       <c r="B117">
-        <v>130.25</v>
+        <v>129.61000100000001</v>
       </c>
       <c r="C117">
-        <v>130.520004</v>
+        <v>130.279999</v>
       </c>
       <c r="D117">
-        <v>130.11999499999999</v>
+        <v>129.13999899999999</v>
       </c>
       <c r="E117">
-        <v>130.429993</v>
+        <v>129.66000399999999</v>
       </c>
       <c r="F117">
-        <v>126.201958</v>
+        <v>125.456917</v>
       </c>
       <c r="G117">
-        <v>5410200</v>
+        <v>9973900</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45128</v>
+        <v>45126</v>
       </c>
       <c r="B118">
-        <v>130.490005</v>
+        <v>129.58999600000001</v>
       </c>
       <c r="C118">
-        <v>131.16999799999999</v>
+        <v>130.46000699999999</v>
       </c>
       <c r="D118">
-        <v>130.25</v>
+        <v>128.91000399999999</v>
       </c>
       <c r="E118">
-        <v>131.029999</v>
+        <v>130.16999799999999</v>
       </c>
       <c r="F118">
-        <v>126.782516</v>
+        <v>125.950394</v>
       </c>
       <c r="G118">
-        <v>10349600</v>
+        <v>12686500</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45131</v>
+        <v>45127</v>
       </c>
       <c r="B119">
-        <v>130.990005</v>
+        <v>130.25</v>
       </c>
       <c r="C119">
-        <v>132.699997</v>
+        <v>130.520004</v>
       </c>
       <c r="D119">
-        <v>130.85000600000001</v>
+        <v>130.11999499999999</v>
       </c>
       <c r="E119">
-        <v>132.05999800000001</v>
+        <v>130.429993</v>
       </c>
       <c r="F119">
-        <v>127.779106</v>
+        <v>126.201958</v>
       </c>
       <c r="G119">
-        <v>2970300</v>
+        <v>5410200</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45132</v>
+        <v>45128</v>
       </c>
       <c r="B120">
-        <v>131.10000600000001</v>
+        <v>130.490005</v>
       </c>
       <c r="C120">
-        <v>131.13999899999999</v>
+        <v>131.16999799999999</v>
       </c>
       <c r="D120">
-        <v>129.220001</v>
+        <v>130.25</v>
       </c>
       <c r="E120">
-        <v>130.009995</v>
+        <v>131.029999</v>
       </c>
       <c r="F120">
-        <v>127.09481</v>
+        <v>126.782516</v>
       </c>
       <c r="G120">
-        <v>10274500</v>
+        <v>10349600</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45133</v>
+        <v>45131</v>
       </c>
       <c r="B121">
-        <v>129.990005</v>
+        <v>130.990005</v>
       </c>
       <c r="C121">
-        <v>130.75</v>
+        <v>132.699997</v>
       </c>
       <c r="D121">
-        <v>129.429993</v>
+        <v>130.85000600000001</v>
       </c>
       <c r="E121">
-        <v>130.16999799999999</v>
+        <v>132.05999800000001</v>
       </c>
       <c r="F121">
-        <v>127.25123600000001</v>
+        <v>127.779106</v>
       </c>
       <c r="G121">
-        <v>9827900</v>
+        <v>2970300</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45134</v>
+        <v>45132</v>
       </c>
       <c r="B122">
-        <v>130.529999</v>
+        <v>131.10000600000001</v>
       </c>
       <c r="C122">
-        <v>131.13000500000001</v>
+        <v>131.13999899999999</v>
       </c>
       <c r="D122">
-        <v>129.91999799999999</v>
+        <v>129.220001</v>
       </c>
       <c r="E122">
-        <v>130.16000399999999</v>
+        <v>130.009995</v>
       </c>
       <c r="F122">
-        <v>127.24144699999999</v>
+        <v>127.09481</v>
       </c>
       <c r="G122">
-        <v>6247000</v>
+        <v>10274500</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45135</v>
+        <v>45133</v>
       </c>
       <c r="B123">
-        <v>131.050003</v>
+        <v>129.990005</v>
       </c>
       <c r="C123">
-        <v>131.449997</v>
+        <v>130.75</v>
       </c>
       <c r="D123">
-        <v>130.30999800000001</v>
+        <v>129.429993</v>
       </c>
       <c r="E123">
-        <v>130.30999800000001</v>
+        <v>130.16999799999999</v>
       </c>
       <c r="F123">
-        <v>127.38808400000001</v>
+        <v>127.25123600000001</v>
       </c>
       <c r="G123">
-        <v>5712900</v>
+        <v>9827900</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="B124">
-        <v>130.36999499999999</v>
+        <v>130.529999</v>
       </c>
       <c r="C124">
-        <v>131.33999600000001</v>
+        <v>131.13000500000001</v>
       </c>
       <c r="D124">
-        <v>130.240005</v>
+        <v>129.91999799999999</v>
       </c>
       <c r="E124">
-        <v>130.729996</v>
+        <v>130.16000399999999</v>
       </c>
       <c r="F124">
-        <v>127.79866800000001</v>
+        <v>127.24144699999999</v>
       </c>
       <c r="G124">
-        <v>3066900</v>
+        <v>6247000</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45139</v>
+        <v>45135</v>
       </c>
       <c r="B125">
-        <v>130.38999899999999</v>
+        <v>131.050003</v>
       </c>
       <c r="C125">
-        <v>130.5</v>
+        <v>131.449997</v>
       </c>
       <c r="D125">
-        <v>129.11000100000001</v>
+        <v>130.30999800000001</v>
       </c>
       <c r="E125">
-        <v>129.66999799999999</v>
+        <v>130.30999800000001</v>
       </c>
       <c r="F125">
-        <v>126.762444</v>
+        <v>127.38808400000001</v>
       </c>
       <c r="G125">
-        <v>7878900</v>
+        <v>5712900</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45140</v>
+        <v>45138</v>
       </c>
       <c r="B126">
-        <v>128.86999499999999</v>
+        <v>130.36999499999999</v>
       </c>
       <c r="C126">
-        <v>129.35000600000001</v>
+        <v>131.33999600000001</v>
       </c>
       <c r="D126">
-        <v>128.10000600000001</v>
+        <v>130.240005</v>
       </c>
       <c r="E126">
-        <v>128.490005</v>
+        <v>130.729996</v>
       </c>
       <c r="F126">
-        <v>125.608902</v>
+        <v>127.79866800000001</v>
       </c>
       <c r="G126">
-        <v>4407900</v>
+        <v>3066900</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="B127">
-        <v>127.94000200000001</v>
+        <v>130.38999899999999</v>
       </c>
       <c r="C127">
-        <v>128.03999300000001</v>
+        <v>130.5</v>
       </c>
       <c r="D127">
-        <v>127.300003</v>
+        <v>129.11000100000001</v>
       </c>
       <c r="E127">
-        <v>127.699997</v>
+        <v>129.66999799999999</v>
       </c>
       <c r="F127">
-        <v>124.836609</v>
+        <v>126.762444</v>
       </c>
       <c r="G127">
-        <v>1979000</v>
+        <v>7878900</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45142</v>
+        <v>45140</v>
       </c>
       <c r="B128">
-        <v>127.69000200000001</v>
+        <v>128.86999499999999</v>
       </c>
       <c r="C128">
-        <v>128.929993</v>
+        <v>129.35000600000001</v>
       </c>
       <c r="D128">
-        <v>127.41999800000001</v>
+        <v>128.10000600000001</v>
       </c>
       <c r="E128">
-        <v>128.25</v>
+        <v>128.490005</v>
       </c>
       <c r="F128">
-        <v>125.37428300000001</v>
+        <v>125.608902</v>
       </c>
       <c r="G128">
-        <v>1979200</v>
+        <v>4407900</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45146</v>
+        <v>45141</v>
       </c>
       <c r="B129">
+        <v>127.94000200000001</v>
+      </c>
+      <c r="C129">
+        <v>128.03999300000001</v>
+      </c>
+      <c r="D129">
+        <v>127.300003</v>
+      </c>
+      <c r="E129">
         <v>127.699997</v>
       </c>
-      <c r="C129">
-        <v>127.80999799999999</v>
-      </c>
-      <c r="D129">
-        <v>126.889999</v>
-      </c>
-      <c r="E129">
-        <v>127.480003</v>
-      </c>
       <c r="F129">
-        <v>124.621544</v>
+        <v>124.836609</v>
       </c>
       <c r="G129">
-        <v>3942700</v>
+        <v>1979000</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="B130">
-        <v>127.55999799999999</v>
+        <v>127.69000200000001</v>
       </c>
       <c r="C130">
-        <v>127.790001</v>
+        <v>128.929993</v>
       </c>
       <c r="D130">
-        <v>127.129997</v>
+        <v>127.41999800000001</v>
       </c>
       <c r="E130">
-        <v>127.480003</v>
+        <v>128.25</v>
       </c>
       <c r="F130">
-        <v>124.621544</v>
+        <v>125.37428300000001</v>
       </c>
       <c r="G130">
-        <v>1979000</v>
+        <v>1979200</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45148</v>
+        <v>45146</v>
       </c>
       <c r="B131">
-        <v>128</v>
+        <v>127.699997</v>
       </c>
       <c r="C131">
-        <v>128.800003</v>
+        <v>127.80999799999999</v>
       </c>
       <c r="D131">
-        <v>127.650002</v>
+        <v>126.889999</v>
       </c>
       <c r="E131">
-        <v>127.699997</v>
+        <v>127.480003</v>
       </c>
       <c r="F131">
-        <v>124.836609</v>
+        <v>124.621544</v>
       </c>
       <c r="G131">
-        <v>4102800</v>
+        <v>3942700</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="B132">
-        <v>127.629997</v>
+        <v>127.55999799999999</v>
       </c>
       <c r="C132">
-        <v>128.11000100000001</v>
+        <v>127.790001</v>
       </c>
       <c r="D132">
-        <v>127.269997</v>
+        <v>127.129997</v>
       </c>
       <c r="E132">
-        <v>127.57</v>
+        <v>127.480003</v>
       </c>
       <c r="F132">
-        <v>124.709526</v>
+        <v>124.621544</v>
       </c>
       <c r="G132">
-        <v>2212000</v>
+        <v>1979000</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45152</v>
+        <v>45148</v>
       </c>
       <c r="B133">
-        <v>127.41999800000001</v>
+        <v>128</v>
       </c>
       <c r="C133">
-        <v>127.519997</v>
+        <v>128.800003</v>
       </c>
       <c r="D133">
-        <v>126.300003</v>
+        <v>127.650002</v>
       </c>
       <c r="E133">
-        <v>126.870003</v>
+        <v>127.699997</v>
       </c>
       <c r="F133">
-        <v>124.025223</v>
+        <v>124.836609</v>
       </c>
       <c r="G133">
-        <v>3640900</v>
+        <v>4102800</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45153</v>
+        <v>45149</v>
       </c>
       <c r="B134">
-        <v>126</v>
+        <v>127.629997</v>
       </c>
       <c r="C134">
-        <v>126.209999</v>
+        <v>128.11000100000001</v>
       </c>
       <c r="D134">
-        <v>123.889999</v>
+        <v>127.269997</v>
       </c>
       <c r="E134">
-        <v>124.040001</v>
+        <v>127.57</v>
       </c>
       <c r="F134">
-        <v>121.25868199999999</v>
+        <v>124.709526</v>
       </c>
       <c r="G134">
-        <v>3587600</v>
+        <v>2212000</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45154</v>
+        <v>45152</v>
       </c>
       <c r="B135">
-        <v>123.699997</v>
+        <v>127.41999800000001</v>
       </c>
       <c r="C135">
-        <v>124.400002</v>
+        <v>127.519997</v>
       </c>
       <c r="D135">
-        <v>123.16999800000001</v>
+        <v>126.300003</v>
       </c>
       <c r="E135">
-        <v>123.41999800000001</v>
+        <v>126.870003</v>
       </c>
       <c r="F135">
-        <v>120.65258</v>
+        <v>124.025223</v>
       </c>
       <c r="G135">
-        <v>3557600</v>
+        <v>3640900</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45155</v>
+        <v>45153</v>
       </c>
       <c r="B136">
-        <v>123.970001</v>
+        <v>126</v>
       </c>
       <c r="C136">
-        <v>125.709999</v>
+        <v>126.209999</v>
       </c>
       <c r="D136">
-        <v>122.489998</v>
+        <v>123.889999</v>
       </c>
       <c r="E136">
-        <v>122.489998</v>
+        <v>124.040001</v>
       </c>
       <c r="F136">
-        <v>119.743431</v>
+        <v>121.25868199999999</v>
       </c>
       <c r="G136">
-        <v>3414800</v>
+        <v>3587600</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>45156</v>
+        <v>45154</v>
       </c>
       <c r="B137">
-        <v>122</v>
+        <v>123.699997</v>
       </c>
       <c r="C137">
-        <v>122.339996</v>
+        <v>124.400002</v>
       </c>
       <c r="D137">
-        <v>121.470001</v>
+        <v>123.16999800000001</v>
       </c>
       <c r="E137">
-        <v>121.470001</v>
+        <v>123.41999800000001</v>
       </c>
       <c r="F137">
-        <v>118.746307</v>
+        <v>120.65258</v>
       </c>
       <c r="G137">
-        <v>3516100</v>
+        <v>3557600</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>45159</v>
+        <v>45155</v>
       </c>
       <c r="B138">
-        <v>121.68</v>
+        <v>123.970001</v>
       </c>
       <c r="C138">
-        <v>122.269997</v>
+        <v>125.709999</v>
       </c>
       <c r="D138">
-        <v>121.029999</v>
+        <v>122.489998</v>
       </c>
       <c r="E138">
-        <v>121.239998</v>
+        <v>122.489998</v>
       </c>
       <c r="F138">
-        <v>118.521461</v>
+        <v>119.743431</v>
       </c>
       <c r="G138">
-        <v>5630400</v>
+        <v>3414800</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>45160</v>
+        <v>45156</v>
       </c>
       <c r="B139">
-        <v>121.43</v>
+        <v>122</v>
       </c>
       <c r="C139">
-        <v>121.620003</v>
+        <v>122.339996</v>
       </c>
       <c r="D139">
-        <v>119.639999</v>
+        <v>121.470001</v>
       </c>
       <c r="E139">
-        <v>119.709999</v>
+        <v>121.470001</v>
       </c>
       <c r="F139">
-        <v>117.025772</v>
+        <v>118.746307</v>
       </c>
       <c r="G139">
-        <v>4165000</v>
+        <v>3516100</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>45161</v>
+        <v>45159</v>
       </c>
       <c r="B140">
-        <v>120.099998</v>
+        <v>121.68</v>
       </c>
       <c r="C140">
-        <v>121.019997</v>
+        <v>122.269997</v>
       </c>
       <c r="D140">
-        <v>119.860001</v>
+        <v>121.029999</v>
       </c>
       <c r="E140">
-        <v>120.260002</v>
+        <v>121.239998</v>
       </c>
       <c r="F140">
-        <v>117.563438</v>
+        <v>118.521461</v>
       </c>
       <c r="G140">
-        <v>3818900</v>
+        <v>5630400</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>45162</v>
+        <v>45160</v>
       </c>
       <c r="B141">
-        <v>120.519997</v>
+        <v>121.43</v>
       </c>
       <c r="C141">
-        <v>123.05999799999999</v>
+        <v>121.620003</v>
       </c>
       <c r="D141">
-        <v>120.519997</v>
+        <v>119.639999</v>
       </c>
       <c r="E141">
-        <v>122.620003</v>
+        <v>119.709999</v>
       </c>
       <c r="F141">
-        <v>119.87052199999999</v>
+        <v>117.025772</v>
       </c>
       <c r="G141">
-        <v>2978200</v>
+        <v>4165000</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>45163</v>
+        <v>45161</v>
       </c>
       <c r="B142">
-        <v>122.699997</v>
+        <v>120.099998</v>
       </c>
       <c r="C142">
-        <v>124.050003</v>
+        <v>121.019997</v>
       </c>
       <c r="D142">
-        <v>120.540001</v>
+        <v>119.860001</v>
       </c>
       <c r="E142">
-        <v>121.019997</v>
+        <v>120.260002</v>
       </c>
       <c r="F142">
-        <v>118.306389</v>
+        <v>117.563438</v>
       </c>
       <c r="G142">
-        <v>2058500</v>
+        <v>3818900</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>45166</v>
+        <v>45162</v>
       </c>
       <c r="B143">
-        <v>121.019997</v>
+        <v>120.519997</v>
       </c>
       <c r="C143">
-        <v>122.019997</v>
+        <v>123.05999799999999</v>
       </c>
       <c r="D143">
-        <v>120.860001</v>
+        <v>120.519997</v>
       </c>
       <c r="E143">
-        <v>122.019997</v>
+        <v>122.620003</v>
       </c>
       <c r="F143">
-        <v>119.283974</v>
+        <v>119.87052199999999</v>
       </c>
       <c r="G143">
-        <v>1521000</v>
+        <v>2978200</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>45167</v>
+        <v>45163</v>
       </c>
       <c r="B144">
-        <v>122.050003</v>
+        <v>122.699997</v>
       </c>
       <c r="C144">
-        <v>122.94000200000001</v>
+        <v>124.050003</v>
       </c>
       <c r="D144">
-        <v>121.769997</v>
+        <v>120.540001</v>
       </c>
       <c r="E144">
-        <v>122.660004</v>
+        <v>121.019997</v>
       </c>
       <c r="F144">
-        <v>119.909622</v>
+        <v>118.306389</v>
       </c>
       <c r="G144">
-        <v>2253400</v>
+        <v>2058500</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>45168</v>
+        <v>45166</v>
       </c>
       <c r="B145">
-        <v>122.989998</v>
+        <v>121.019997</v>
       </c>
       <c r="C145">
-        <v>123.470001</v>
+        <v>122.019997</v>
       </c>
       <c r="D145">
-        <v>122.769997</v>
+        <v>120.860001</v>
       </c>
       <c r="E145">
-        <v>122.980003</v>
+        <v>122.019997</v>
       </c>
       <c r="F145">
-        <v>120.22244999999999</v>
+        <v>119.283974</v>
       </c>
       <c r="G145">
-        <v>1679000</v>
+        <v>1521000</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>45169</v>
+        <v>45167</v>
       </c>
       <c r="B146">
-        <v>122.879997</v>
+        <v>122.050003</v>
       </c>
       <c r="C146">
-        <v>123.639999</v>
+        <v>122.94000200000001</v>
       </c>
       <c r="D146">
-        <v>121.449997</v>
+        <v>121.769997</v>
       </c>
       <c r="E146">
-        <v>121.739998</v>
+        <v>122.660004</v>
       </c>
       <c r="F146">
-        <v>119.010246</v>
+        <v>119.909622</v>
       </c>
       <c r="G146">
-        <v>2154000</v>
+        <v>2253400</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>45170</v>
+        <v>45168</v>
       </c>
       <c r="B147">
-        <v>122.260002</v>
+        <v>122.989998</v>
       </c>
       <c r="C147">
-        <v>123.129997</v>
+        <v>123.470001</v>
       </c>
       <c r="D147">
-        <v>122.260002</v>
+        <v>122.769997</v>
       </c>
       <c r="E147">
-        <v>122.849998</v>
+        <v>122.980003</v>
       </c>
       <c r="F147">
-        <v>120.09536</v>
+        <v>120.22244999999999</v>
       </c>
       <c r="G147">
-        <v>2461000</v>
+        <v>1679000</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>45174</v>
+        <v>45169</v>
       </c>
       <c r="B148">
-        <v>122.540001</v>
+        <v>122.879997</v>
       </c>
       <c r="C148">
-        <v>123.269997</v>
+        <v>123.639999</v>
       </c>
       <c r="D148">
-        <v>121.910004</v>
+        <v>121.449997</v>
       </c>
       <c r="E148">
-        <v>122.019997</v>
+        <v>121.739998</v>
       </c>
       <c r="F148">
-        <v>119.283974</v>
+        <v>119.010246</v>
       </c>
       <c r="G148">
-        <v>1632400</v>
+        <v>2154000</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="B149">
-        <v>121.739998</v>
+        <v>122.260002</v>
       </c>
       <c r="C149">
-        <v>121.949997</v>
+        <v>123.129997</v>
       </c>
       <c r="D149">
-        <v>120.790001</v>
+        <v>122.260002</v>
       </c>
       <c r="E149">
-        <v>121.239998</v>
+        <v>122.849998</v>
       </c>
       <c r="F149">
-        <v>118.521461</v>
+        <v>120.09536</v>
       </c>
       <c r="G149">
-        <v>1540400</v>
+        <v>2461000</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>45176</v>
+        <v>45174</v>
       </c>
       <c r="B150">
-        <v>121.050003</v>
+        <v>122.540001</v>
       </c>
       <c r="C150">
-        <v>121.519997</v>
+        <v>123.269997</v>
       </c>
       <c r="D150">
-        <v>119.870003</v>
+        <v>121.910004</v>
       </c>
       <c r="E150">
-        <v>120.300003</v>
+        <v>122.019997</v>
       </c>
       <c r="F150">
-        <v>117.602547</v>
+        <v>119.283974</v>
       </c>
       <c r="G150">
-        <v>2614300</v>
+        <v>1632400</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>45177</v>
+        <v>45175</v>
       </c>
       <c r="B151">
-        <v>120.120003</v>
+        <v>121.739998</v>
       </c>
       <c r="C151">
-        <v>120.489998</v>
+        <v>121.949997</v>
       </c>
       <c r="D151">
-        <v>119.25</v>
+        <v>120.790001</v>
       </c>
       <c r="E151">
-        <v>120.099998</v>
+        <v>121.239998</v>
       </c>
       <c r="F151">
-        <v>117.407028</v>
+        <v>118.521461</v>
       </c>
       <c r="G151">
-        <v>1575000</v>
+        <v>1540400</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>45180</v>
+        <v>45176</v>
       </c>
       <c r="B152">
-        <v>120.209999</v>
+        <v>121.050003</v>
       </c>
       <c r="C152">
-        <v>120.800003</v>
+        <v>121.519997</v>
       </c>
       <c r="D152">
-        <v>119.389999</v>
+        <v>119.870003</v>
       </c>
       <c r="E152">
-        <v>120.400002</v>
+        <v>120.300003</v>
       </c>
       <c r="F152">
-        <v>117.70030199999999</v>
+        <v>117.602547</v>
       </c>
       <c r="G152">
-        <v>1138100</v>
+        <v>2614300</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>45181</v>
+        <v>45177</v>
       </c>
       <c r="B153">
-        <v>120.529999</v>
+        <v>120.120003</v>
       </c>
       <c r="C153">
-        <v>121.470001</v>
+        <v>120.489998</v>
       </c>
       <c r="D153">
-        <v>120.199997</v>
+        <v>119.25</v>
       </c>
       <c r="E153">
-        <v>121.220001</v>
+        <v>120.099998</v>
       </c>
       <c r="F153">
-        <v>118.501915</v>
+        <v>117.407028</v>
       </c>
       <c r="G153">
-        <v>1310700</v>
+        <v>1575000</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>45182</v>
+        <v>45180</v>
       </c>
       <c r="B154">
-        <v>121.5</v>
+        <v>120.209999</v>
       </c>
       <c r="C154">
-        <v>122.80999799999999</v>
+        <v>120.800003</v>
       </c>
       <c r="D154">
-        <v>121.400002</v>
+        <v>119.389999</v>
       </c>
       <c r="E154">
-        <v>121.959999</v>
+        <v>120.400002</v>
       </c>
       <c r="F154">
-        <v>119.225319</v>
+        <v>117.70030199999999</v>
       </c>
       <c r="G154">
-        <v>1982500</v>
+        <v>1138100</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>45183</v>
+        <v>45181</v>
       </c>
       <c r="B155">
-        <v>122.80999799999999</v>
+        <v>120.529999</v>
       </c>
       <c r="C155">
-        <v>123.800003</v>
+        <v>121.470001</v>
       </c>
       <c r="D155">
-        <v>122.650002</v>
+        <v>120.199997</v>
       </c>
       <c r="E155">
-        <v>123.459999</v>
+        <v>121.220001</v>
       </c>
       <c r="F155">
-        <v>120.691681</v>
+        <v>118.501915</v>
       </c>
       <c r="G155">
-        <v>2455800</v>
+        <v>1310700</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>45184</v>
+        <v>45182</v>
       </c>
       <c r="B156">
-        <v>123.139999</v>
+        <v>121.5</v>
       </c>
       <c r="C156">
-        <v>124.150002</v>
+        <v>122.80999799999999</v>
       </c>
       <c r="D156">
-        <v>123.010002</v>
+        <v>121.400002</v>
       </c>
       <c r="E156">
-        <v>124.120003</v>
+        <v>121.959999</v>
       </c>
       <c r="F156">
-        <v>121.33689099999999</v>
+        <v>119.225319</v>
       </c>
       <c r="G156">
-        <v>8515700</v>
+        <v>1982500</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>45187</v>
+        <v>45183</v>
       </c>
       <c r="B157">
-        <v>124</v>
+        <v>122.80999799999999</v>
       </c>
       <c r="C157">
-        <v>124.230003</v>
+        <v>123.800003</v>
       </c>
       <c r="D157">
-        <v>123.099998</v>
+        <v>122.650002</v>
       </c>
       <c r="E157">
-        <v>123.349998</v>
+        <v>123.459999</v>
       </c>
       <c r="F157">
-        <v>120.584152</v>
+        <v>120.691681</v>
       </c>
       <c r="G157">
-        <v>1511900</v>
+        <v>2455800</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>45188</v>
+        <v>45184</v>
       </c>
       <c r="B158">
-        <v>123.05999799999999</v>
+        <v>123.139999</v>
       </c>
       <c r="C158">
-        <v>123.08000199999999</v>
+        <v>124.150002</v>
       </c>
       <c r="D158">
-        <v>122.029999</v>
+        <v>123.010002</v>
       </c>
       <c r="E158">
-        <v>122.360001</v>
+        <v>124.120003</v>
       </c>
       <c r="F158">
-        <v>119.616348</v>
+        <v>121.33689099999999</v>
       </c>
       <c r="G158">
-        <v>2658500</v>
+        <v>8515700</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>45189</v>
+        <v>45187</v>
       </c>
       <c r="B159">
-        <v>122.699997</v>
+        <v>124</v>
       </c>
       <c r="C159">
-        <v>123.139999</v>
+        <v>124.230003</v>
       </c>
       <c r="D159">
-        <v>122.58000199999999</v>
+        <v>123.099998</v>
       </c>
       <c r="E159">
-        <v>122.769997</v>
+        <v>123.349998</v>
       </c>
       <c r="F159">
-        <v>120.017151</v>
+        <v>120.584152</v>
       </c>
       <c r="G159">
-        <v>917500</v>
+        <v>1511900</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>45190</v>
+        <v>45188</v>
       </c>
       <c r="B160">
-        <v>122.120003</v>
+        <v>123.05999799999999</v>
       </c>
       <c r="C160">
-        <v>122.470001</v>
+        <v>123.08000199999999</v>
       </c>
       <c r="D160">
-        <v>120.82</v>
+        <v>122.029999</v>
       </c>
       <c r="E160">
-        <v>120.839996</v>
+        <v>122.360001</v>
       </c>
       <c r="F160">
-        <v>118.130432</v>
+        <v>119.616348</v>
       </c>
       <c r="G160">
-        <v>2203300</v>
+        <v>2658500</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>45191</v>
+        <v>45189</v>
       </c>
       <c r="B161">
-        <v>120.900002</v>
+        <v>122.699997</v>
       </c>
       <c r="C161">
-        <v>121.230003</v>
+        <v>123.139999</v>
       </c>
       <c r="D161">
-        <v>120.160004</v>
+        <v>122.58000199999999</v>
       </c>
       <c r="E161">
-        <v>120.19000200000001</v>
+        <v>122.769997</v>
       </c>
       <c r="F161">
-        <v>117.49500999999999</v>
+        <v>120.017151</v>
       </c>
       <c r="G161">
-        <v>2660400</v>
+        <v>917500</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>45194</v>
+        <v>45190</v>
       </c>
       <c r="B162">
-        <v>120</v>
+        <v>122.120003</v>
       </c>
       <c r="C162">
-        <v>120.709999</v>
+        <v>122.470001</v>
       </c>
       <c r="D162">
-        <v>119.300003</v>
+        <v>120.82</v>
       </c>
       <c r="E162">
-        <v>120.41999800000001</v>
+        <v>120.839996</v>
       </c>
       <c r="F162">
-        <v>117.719849</v>
+        <v>118.130432</v>
       </c>
       <c r="G162">
-        <v>4449600</v>
+        <v>2203300</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>45195</v>
+        <v>45191</v>
       </c>
       <c r="B163">
-        <v>119.900002</v>
+        <v>120.900002</v>
       </c>
       <c r="C163">
+        <v>121.230003</v>
+      </c>
+      <c r="D163">
         <v>120.160004</v>
       </c>
-      <c r="D163">
-        <v>118.610001</v>
-      </c>
       <c r="E163">
-        <v>118.860001</v>
+        <v>120.19000200000001</v>
       </c>
       <c r="F163">
-        <v>116.19483200000001</v>
+        <v>117.49500999999999</v>
       </c>
       <c r="G163">
-        <v>3513500</v>
+        <v>2660400</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>45196</v>
+        <v>45194</v>
       </c>
       <c r="B164">
-        <v>119.360001</v>
+        <v>120</v>
       </c>
       <c r="C164">
-        <v>119.389999</v>
+        <v>120.709999</v>
       </c>
       <c r="D164">
-        <v>117.110001</v>
+        <v>119.300003</v>
       </c>
       <c r="E164">
-        <v>117.300003</v>
+        <v>120.41999800000001</v>
       </c>
       <c r="F164">
-        <v>114.66980700000001</v>
+        <v>117.719849</v>
       </c>
       <c r="G164">
-        <v>3448400</v>
+        <v>4449600</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>45197</v>
+        <v>45195</v>
       </c>
       <c r="B165">
-        <v>117.349998</v>
+        <v>119.900002</v>
       </c>
       <c r="C165">
-        <v>119.230003</v>
+        <v>120.160004</v>
       </c>
       <c r="D165">
-        <v>117.269997</v>
+        <v>118.610001</v>
       </c>
       <c r="E165">
-        <v>118.760002</v>
+        <v>118.860001</v>
       </c>
       <c r="F165">
-        <v>116.097076</v>
+        <v>116.19483200000001</v>
       </c>
       <c r="G165">
-        <v>2778600</v>
+        <v>3513500</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>45198</v>
+        <v>45196</v>
       </c>
       <c r="B166">
-        <v>119.349998</v>
+        <v>119.360001</v>
       </c>
       <c r="C166">
-        <v>119.839996</v>
+        <v>119.389999</v>
       </c>
       <c r="D166">
-        <v>118.129997</v>
+        <v>117.110001</v>
       </c>
       <c r="E166">
-        <v>118.699997</v>
+        <v>117.300003</v>
       </c>
       <c r="F166">
-        <v>116.038414</v>
+        <v>114.66980700000001</v>
       </c>
       <c r="G166">
-        <v>3313600</v>
+        <v>3448400</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>45201</v>
+        <v>45197</v>
       </c>
       <c r="B167">
-        <v>118.730003</v>
+        <v>117.349998</v>
       </c>
       <c r="C167">
-        <v>119.010002</v>
+        <v>119.230003</v>
       </c>
       <c r="D167">
-        <v>115.889999</v>
+        <v>117.269997</v>
       </c>
       <c r="E167">
-        <v>115.949997</v>
+        <v>118.760002</v>
       </c>
       <c r="F167">
-        <v>113.350075</v>
+        <v>116.097076</v>
       </c>
       <c r="G167">
-        <v>4403900</v>
+        <v>2778600</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>45202</v>
+        <v>45198</v>
       </c>
       <c r="B168">
-        <v>115.5</v>
+        <v>119.349998</v>
       </c>
       <c r="C168">
-        <v>115.650002</v>
+        <v>119.839996</v>
       </c>
       <c r="D168">
-        <v>112.69000200000001</v>
+        <v>118.129997</v>
       </c>
       <c r="E168">
-        <v>113.139999</v>
+        <v>118.699997</v>
       </c>
       <c r="F168">
-        <v>110.603088</v>
+        <v>116.038414</v>
       </c>
       <c r="G168">
-        <v>5967200</v>
+        <v>3313600</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="B169">
-        <v>113.300003</v>
+        <v>118.730003</v>
       </c>
       <c r="C169">
-        <v>114.230003</v>
+        <v>119.010002</v>
       </c>
       <c r="D169">
-        <v>111.489998</v>
+        <v>115.889999</v>
       </c>
       <c r="E169">
-        <v>114.19000200000001</v>
+        <v>115.949997</v>
       </c>
       <c r="F169">
-        <v>111.629547</v>
+        <v>113.350075</v>
       </c>
       <c r="G169">
-        <v>5264500</v>
+        <v>4403900</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>45204</v>
+        <v>45202</v>
       </c>
       <c r="B170">
-        <v>114.199997</v>
+        <v>115.5</v>
       </c>
       <c r="C170">
-        <v>115.199997</v>
+        <v>115.650002</v>
       </c>
       <c r="D170">
-        <v>114.16999800000001</v>
+        <v>112.69000200000001</v>
       </c>
       <c r="E170">
-        <v>115.07</v>
+        <v>113.139999</v>
       </c>
       <c r="F170">
-        <v>112.489807</v>
+        <v>110.603088</v>
       </c>
       <c r="G170">
-        <v>4823300</v>
+        <v>5967200</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>45205</v>
+        <v>45203</v>
       </c>
       <c r="B171">
-        <v>114.5</v>
+        <v>113.300003</v>
       </c>
       <c r="C171">
-        <v>115.199997</v>
+        <v>114.230003</v>
       </c>
       <c r="D171">
-        <v>112.879997</v>
+        <v>111.489998</v>
       </c>
       <c r="E171">
-        <v>114.900002</v>
+        <v>114.19000200000001</v>
       </c>
       <c r="F171">
-        <v>112.323624</v>
+        <v>111.629547</v>
       </c>
       <c r="G171">
-        <v>6214700</v>
+        <v>5264500</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="B172">
-        <v>114.5</v>
+        <v>114.199997</v>
       </c>
       <c r="C172">
-        <v>115.760002</v>
+        <v>115.199997</v>
       </c>
       <c r="D172">
-        <v>114.5</v>
+        <v>114.16999800000001</v>
       </c>
       <c r="E172">
-        <v>115.510002</v>
+        <v>115.07</v>
       </c>
       <c r="F172">
-        <v>112.919945</v>
+        <v>112.489807</v>
       </c>
       <c r="G172">
-        <v>5743300</v>
+        <v>4823300</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>45210</v>
+        <v>45205</v>
       </c>
       <c r="B173">
-        <v>116</v>
+        <v>114.5</v>
       </c>
       <c r="C173">
-        <v>116.849998</v>
+        <v>115.199997</v>
       </c>
       <c r="D173">
-        <v>115.629997</v>
+        <v>112.879997</v>
       </c>
       <c r="E173">
-        <v>116.379997</v>
+        <v>114.900002</v>
       </c>
       <c r="F173">
-        <v>113.770439</v>
+        <v>112.323624</v>
       </c>
       <c r="G173">
-        <v>5678400</v>
+        <v>6214700</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>45211</v>
+        <v>45209</v>
       </c>
       <c r="B174">
-        <v>116.209999</v>
+        <v>114.5</v>
       </c>
       <c r="C174">
-        <v>116.639999</v>
+        <v>115.760002</v>
       </c>
       <c r="D174">
-        <v>115.25</v>
+        <v>114.5</v>
       </c>
       <c r="E174">
-        <v>115.550003</v>
+        <v>115.510002</v>
       </c>
       <c r="F174">
-        <v>112.959053</v>
+        <v>112.919945</v>
       </c>
       <c r="G174">
-        <v>3792900</v>
+        <v>5743300</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>45212</v>
+        <v>45210</v>
       </c>
       <c r="B175">
-        <v>116.040001</v>
+        <v>116</v>
       </c>
       <c r="C175">
-        <v>116.5</v>
+        <v>116.849998</v>
       </c>
       <c r="D175">
-        <v>114.379997</v>
+        <v>115.629997</v>
       </c>
       <c r="E175">
-        <v>114.540001</v>
+        <v>116.379997</v>
       </c>
       <c r="F175">
-        <v>111.971695</v>
+        <v>113.770439</v>
       </c>
       <c r="G175">
-        <v>2968800</v>
+        <v>5678400</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>45215</v>
+        <v>45211</v>
       </c>
       <c r="B176">
-        <v>115.099998</v>
+        <v>116.209999</v>
       </c>
       <c r="C176">
-        <v>116.269997</v>
+        <v>116.639999</v>
       </c>
       <c r="D176">
-        <v>114.519997</v>
+        <v>115.25</v>
       </c>
       <c r="E176">
-        <v>116.199997</v>
+        <v>115.550003</v>
       </c>
       <c r="F176">
-        <v>113.59446699999999</v>
+        <v>112.959053</v>
       </c>
       <c r="G176">
-        <v>9376600</v>
+        <v>3792900</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="B177">
-        <v>115.699997</v>
+        <v>116.040001</v>
       </c>
       <c r="C177">
-        <v>116.91999800000001</v>
+        <v>116.5</v>
       </c>
       <c r="D177">
-        <v>115.370003</v>
+        <v>114.379997</v>
       </c>
       <c r="E177">
-        <v>115.529999</v>
+        <v>114.540001</v>
       </c>
       <c r="F177">
-        <v>112.939491</v>
+        <v>111.971695</v>
       </c>
       <c r="G177">
-        <v>3894900</v>
+        <v>2968800</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>45217</v>
+        <v>45215</v>
       </c>
       <c r="B178">
-        <v>115.010002</v>
+        <v>115.099998</v>
       </c>
       <c r="C178">
-        <v>115.230003</v>
+        <v>116.269997</v>
       </c>
       <c r="D178">
-        <v>113.55999799999999</v>
+        <v>114.519997</v>
       </c>
       <c r="E178">
-        <v>113.650002</v>
+        <v>116.199997</v>
       </c>
       <c r="F178">
-        <v>111.101654</v>
+        <v>113.59446699999999</v>
       </c>
       <c r="G178">
-        <v>4782900</v>
+        <v>9376600</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>45218</v>
+        <v>45216</v>
       </c>
       <c r="B179">
-        <v>113.660004</v>
+        <v>115.699997</v>
       </c>
       <c r="C179">
-        <v>114.629997</v>
+        <v>116.91999800000001</v>
       </c>
       <c r="D179">
-        <v>112.900002</v>
+        <v>115.370003</v>
       </c>
       <c r="E179">
-        <v>113.029999</v>
+        <v>115.529999</v>
       </c>
       <c r="F179">
-        <v>110.495552</v>
+        <v>112.939491</v>
       </c>
       <c r="G179">
-        <v>3101300</v>
+        <v>3894900</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>45219</v>
+        <v>45217</v>
       </c>
       <c r="B180">
-        <v>112.480003</v>
+        <v>115.010002</v>
       </c>
       <c r="C180">
-        <v>112.800003</v>
+        <v>115.230003</v>
       </c>
       <c r="D180">
-        <v>110.879997</v>
+        <v>113.55999799999999</v>
       </c>
       <c r="E180">
-        <v>111.010002</v>
+        <v>113.650002</v>
       </c>
       <c r="F180">
-        <v>108.520844</v>
+        <v>111.101654</v>
       </c>
       <c r="G180">
-        <v>9340900</v>
+        <v>4782900</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>45222</v>
+        <v>45218</v>
       </c>
       <c r="B181">
-        <v>110.349998</v>
+        <v>113.660004</v>
       </c>
       <c r="C181">
-        <v>112.389999</v>
+        <v>114.629997</v>
       </c>
       <c r="D181">
-        <v>110.209999</v>
+        <v>112.900002</v>
       </c>
       <c r="E181">
-        <v>111.33000199999999</v>
+        <v>113.029999</v>
       </c>
       <c r="F181">
-        <v>108.833679</v>
+        <v>110.495552</v>
       </c>
       <c r="G181">
-        <v>2908300</v>
+        <v>3101300</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>45223</v>
+        <v>45219</v>
       </c>
       <c r="B182">
-        <v>111.800003</v>
+        <v>112.480003</v>
       </c>
       <c r="C182">
-        <v>111.83000199999999</v>
+        <v>112.800003</v>
       </c>
       <c r="D182">
-        <v>109.910004</v>
+        <v>110.879997</v>
       </c>
       <c r="E182">
-        <v>110.379997</v>
+        <v>111.010002</v>
       </c>
       <c r="F182">
-        <v>107.904976</v>
+        <v>108.520844</v>
       </c>
       <c r="G182">
-        <v>4806600</v>
+        <v>9340900</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>45224</v>
+        <v>45222</v>
       </c>
       <c r="B183">
-        <v>108.650002</v>
+        <v>110.349998</v>
       </c>
       <c r="C183">
-        <v>109.769997</v>
+        <v>112.389999</v>
       </c>
       <c r="D183">
-        <v>107.91999800000001</v>
+        <v>110.209999</v>
       </c>
       <c r="E183">
-        <v>109.110001</v>
+        <v>111.33000199999999</v>
       </c>
       <c r="F183">
-        <v>107.984146</v>
+        <v>108.833679</v>
       </c>
       <c r="G183">
-        <v>9526400</v>
+        <v>2908300</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>45225</v>
+        <v>45223</v>
       </c>
       <c r="B184">
-        <v>108.93</v>
+        <v>111.800003</v>
       </c>
       <c r="C184">
-        <v>110.860001</v>
+        <v>111.83000199999999</v>
       </c>
       <c r="D184">
-        <v>108.839996</v>
+        <v>109.910004</v>
       </c>
       <c r="E184">
-        <v>110.209999</v>
+        <v>110.379997</v>
       </c>
       <c r="F184">
-        <v>109.07279200000001</v>
+        <v>107.904976</v>
       </c>
       <c r="G184">
-        <v>6907100</v>
+        <v>4806600</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>45226</v>
+        <v>45224</v>
       </c>
       <c r="B185">
-        <v>110.16999800000001</v>
+        <v>108.650002</v>
       </c>
       <c r="C185">
-        <v>110.389999</v>
+        <v>109.769997</v>
       </c>
       <c r="D185">
-        <v>108.110001</v>
+        <v>107.91999800000001</v>
       </c>
       <c r="E185">
-        <v>108.470001</v>
+        <v>109.110001</v>
       </c>
       <c r="F185">
-        <v>107.35075399999999</v>
+        <v>107.984146</v>
       </c>
       <c r="G185">
-        <v>6817100</v>
+        <v>9526400</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>45229</v>
+        <v>45225</v>
       </c>
       <c r="B186">
-        <v>109.290001</v>
+        <v>108.93</v>
       </c>
       <c r="C186">
-        <v>110.68</v>
+        <v>110.860001</v>
       </c>
       <c r="D186">
-        <v>109.239998</v>
+        <v>108.839996</v>
       </c>
       <c r="E186">
-        <v>110.120003</v>
+        <v>110.209999</v>
       </c>
       <c r="F186">
-        <v>108.983727</v>
+        <v>109.07279200000001</v>
       </c>
       <c r="G186">
-        <v>6701200</v>
+        <v>6907100</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>45230</v>
+        <v>45226</v>
       </c>
       <c r="B187">
-        <v>110.489998</v>
+        <v>110.16999800000001</v>
       </c>
       <c r="C187">
-        <v>110.879997</v>
+        <v>110.389999</v>
       </c>
       <c r="D187">
-        <v>109.769997</v>
+        <v>108.110001</v>
       </c>
       <c r="E187">
-        <v>110.760002</v>
+        <v>108.470001</v>
       </c>
       <c r="F187">
-        <v>109.617126</v>
+        <v>107.35075399999999</v>
       </c>
       <c r="G187">
-        <v>5015700</v>
+        <v>6817100</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>45231</v>
+        <v>45229</v>
       </c>
       <c r="B188">
-        <v>111.010002</v>
+        <v>109.290001</v>
       </c>
       <c r="C188">
-        <v>111.379997</v>
+        <v>110.68</v>
       </c>
       <c r="D188">
-        <v>109.889999</v>
+        <v>109.239998</v>
       </c>
       <c r="E188">
-        <v>111.269997</v>
+        <v>110.120003</v>
       </c>
       <c r="F188">
-        <v>110.12185700000001</v>
+        <v>108.983727</v>
       </c>
       <c r="G188">
-        <v>3133300</v>
+        <v>6701200</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>45232</v>
+        <v>45230</v>
       </c>
       <c r="B189">
-        <v>111.839996</v>
+        <v>110.489998</v>
       </c>
       <c r="C189">
-        <v>114.800003</v>
+        <v>110.879997</v>
       </c>
       <c r="D189">
-        <v>111.660004</v>
+        <v>109.769997</v>
       </c>
       <c r="E189">
-        <v>114.790001</v>
+        <v>110.760002</v>
       </c>
       <c r="F189">
-        <v>113.605537</v>
+        <v>109.617126</v>
       </c>
       <c r="G189">
-        <v>4425900</v>
+        <v>5015700</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>45233</v>
+        <v>45231</v>
       </c>
       <c r="B190">
-        <v>115.55999799999999</v>
+        <v>111.010002</v>
       </c>
       <c r="C190">
-        <v>116.400002</v>
+        <v>111.379997</v>
       </c>
       <c r="D190">
-        <v>115.150002</v>
+        <v>109.889999</v>
       </c>
       <c r="E190">
-        <v>116.050003</v>
+        <v>111.269997</v>
       </c>
       <c r="F190">
-        <v>114.85253899999999</v>
+        <v>110.12185700000001</v>
       </c>
       <c r="G190">
-        <v>7501100</v>
+        <v>3133300</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>45236</v>
+        <v>45232</v>
       </c>
       <c r="B191">
-        <v>116.760002</v>
+        <v>111.839996</v>
       </c>
       <c r="C191">
-        <v>117.18</v>
+        <v>114.800003</v>
       </c>
       <c r="D191">
-        <v>115.709999</v>
+        <v>111.660004</v>
       </c>
       <c r="E191">
-        <v>116.220001</v>
+        <v>114.790001</v>
       </c>
       <c r="F191">
-        <v>115.020782</v>
+        <v>113.605537</v>
       </c>
       <c r="G191">
-        <v>4604700</v>
+        <v>4425900</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="B192">
-        <v>116</v>
+        <v>115.55999799999999</v>
       </c>
       <c r="C192">
-        <v>116</v>
+        <v>116.400002</v>
       </c>
       <c r="D192">
-        <v>115.279999</v>
+        <v>115.150002</v>
       </c>
       <c r="E192">
-        <v>115.779999</v>
+        <v>116.050003</v>
       </c>
       <c r="F192">
-        <v>114.58532</v>
+        <v>114.85253899999999</v>
       </c>
       <c r="G192">
-        <v>8334600</v>
+        <v>7501100</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>45238</v>
+        <v>45236</v>
       </c>
       <c r="B193">
-        <v>115.620003</v>
+        <v>116.760002</v>
       </c>
       <c r="C193">
-        <v>116.279999</v>
+        <v>117.18</v>
       </c>
       <c r="D193">
-        <v>115.41999800000001</v>
+        <v>115.709999</v>
       </c>
       <c r="E193">
-        <v>116</v>
+        <v>116.220001</v>
       </c>
       <c r="F193">
-        <v>114.803055</v>
+        <v>115.020782</v>
       </c>
       <c r="G193">
-        <v>4122000</v>
+        <v>4604700</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>45239</v>
+        <v>45237</v>
       </c>
       <c r="B194">
-        <v>116.120003</v>
+        <v>116</v>
       </c>
       <c r="C194">
-        <v>117.41999800000001</v>
+        <v>116</v>
       </c>
       <c r="D194">
-        <v>116</v>
+        <v>115.279999</v>
       </c>
       <c r="E194">
-        <v>116.239998</v>
+        <v>115.779999</v>
       </c>
       <c r="F194">
-        <v>115.04057299999999</v>
+        <v>114.58532</v>
       </c>
       <c r="G194">
-        <v>2340900</v>
+        <v>8334600</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>45240</v>
+        <v>45238</v>
       </c>
       <c r="B195">
-        <v>116.550003</v>
+        <v>115.620003</v>
       </c>
       <c r="C195">
-        <v>117.050003</v>
+        <v>116.279999</v>
       </c>
       <c r="D195">
-        <v>115.68</v>
+        <v>115.41999800000001</v>
       </c>
       <c r="E195">
-        <v>116.779999</v>
+        <v>116</v>
       </c>
       <c r="F195">
-        <v>115.575005</v>
+        <v>114.803055</v>
       </c>
       <c r="G195">
-        <v>2896200</v>
+        <v>4122000</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>45243</v>
+        <v>45239</v>
       </c>
       <c r="B196">
-        <v>116.66999800000001</v>
+        <v>116.120003</v>
       </c>
       <c r="C196">
-        <v>117.480003</v>
+        <v>117.41999800000001</v>
       </c>
       <c r="D196">
-        <v>116.550003</v>
+        <v>116</v>
       </c>
       <c r="E196">
-        <v>116.879997</v>
+        <v>116.239998</v>
       </c>
       <c r="F196">
-        <v>115.673965</v>
+        <v>115.04057299999999</v>
       </c>
       <c r="G196">
-        <v>2619300</v>
+        <v>2340900</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>45244</v>
+        <v>45240</v>
       </c>
       <c r="B197">
-        <v>118</v>
+        <v>116.550003</v>
       </c>
       <c r="C197">
-        <v>119.459999</v>
+        <v>117.050003</v>
       </c>
       <c r="D197">
-        <v>117.879997</v>
+        <v>115.68</v>
       </c>
       <c r="E197">
-        <v>119.139999</v>
+        <v>116.779999</v>
       </c>
       <c r="F197">
-        <v>117.910652</v>
+        <v>115.575005</v>
       </c>
       <c r="G197">
-        <v>3707700</v>
+        <v>2896200</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>45245</v>
+        <v>45243</v>
       </c>
       <c r="B198">
-        <v>119.589996</v>
+        <v>116.66999800000001</v>
       </c>
       <c r="C198">
-        <v>120.459999</v>
+        <v>117.480003</v>
       </c>
       <c r="D198">
-        <v>119.209999</v>
+        <v>116.550003</v>
       </c>
       <c r="E198">
-        <v>119.889999</v>
+        <v>116.879997</v>
       </c>
       <c r="F198">
-        <v>118.652916</v>
+        <v>115.673965</v>
       </c>
       <c r="G198">
-        <v>7469100</v>
+        <v>2619300</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>45246</v>
+        <v>45244</v>
       </c>
       <c r="B199">
-        <v>119.980003</v>
+        <v>118</v>
       </c>
       <c r="C199">
-        <v>120.25</v>
+        <v>119.459999</v>
       </c>
       <c r="D199">
-        <v>119.44000200000001</v>
+        <v>117.879997</v>
       </c>
       <c r="E199">
-        <v>119.760002</v>
+        <v>119.139999</v>
       </c>
       <c r="F199">
-        <v>118.524254</v>
+        <v>117.910652</v>
       </c>
       <c r="G199">
-        <v>1898800</v>
+        <v>3707700</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="B200">
-        <v>120.129997</v>
+        <v>119.589996</v>
       </c>
       <c r="C200">
-        <v>121.08000199999999</v>
+        <v>120.459999</v>
       </c>
       <c r="D200">
-        <v>120.010002</v>
+        <v>119.209999</v>
       </c>
       <c r="E200">
-        <v>120.489998</v>
+        <v>119.889999</v>
       </c>
       <c r="F200">
-        <v>119.246719</v>
+        <v>118.652916</v>
       </c>
       <c r="G200">
-        <v>3046400</v>
+        <v>7469100</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>45250</v>
+        <v>45246</v>
       </c>
       <c r="B201">
-        <v>120.650002</v>
+        <v>119.980003</v>
       </c>
       <c r="C201">
-        <v>121.099998</v>
+        <v>120.25</v>
       </c>
       <c r="D201">
-        <v>120.150002</v>
+        <v>119.44000200000001</v>
       </c>
       <c r="E201">
-        <v>120.529999</v>
+        <v>119.760002</v>
       </c>
       <c r="F201">
-        <v>119.28630800000001</v>
+        <v>118.524254</v>
       </c>
       <c r="G201">
-        <v>3865400</v>
+        <v>1898800</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>45251</v>
+        <v>45247</v>
       </c>
       <c r="B202">
-        <v>120.300003</v>
+        <v>120.129997</v>
       </c>
       <c r="C202">
-        <v>120.980003</v>
+        <v>121.08000199999999</v>
       </c>
       <c r="D202">
-        <v>119.709999</v>
+        <v>120.010002</v>
       </c>
       <c r="E202">
-        <v>119.779999</v>
+        <v>120.489998</v>
       </c>
       <c r="F202">
-        <v>118.544044</v>
+        <v>119.246719</v>
       </c>
       <c r="G202">
-        <v>2518800</v>
+        <v>3046400</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>45252</v>
+        <v>45250</v>
       </c>
       <c r="B203">
-        <v>119.959999</v>
+        <v>120.650002</v>
       </c>
       <c r="C203">
-        <v>120.110001</v>
+        <v>121.099998</v>
       </c>
       <c r="D203">
-        <v>118.839996</v>
+        <v>120.150002</v>
       </c>
       <c r="E203">
-        <v>118.970001</v>
+        <v>120.529999</v>
       </c>
       <c r="F203">
-        <v>117.74240899999999</v>
+        <v>119.28630800000001</v>
       </c>
       <c r="G203">
-        <v>4038000</v>
+        <v>3865400</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>45253</v>
+        <v>45251</v>
       </c>
       <c r="B204">
-        <v>118.889999</v>
+        <v>120.300003</v>
       </c>
       <c r="C204">
-        <v>119.849998</v>
+        <v>120.980003</v>
       </c>
       <c r="D204">
-        <v>118.459999</v>
+        <v>119.709999</v>
       </c>
       <c r="E204">
-        <v>118.660004</v>
+        <v>119.779999</v>
       </c>
       <c r="F204">
-        <v>117.435608</v>
+        <v>118.544044</v>
       </c>
       <c r="G204">
-        <v>1232500</v>
+        <v>2518800</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>45254</v>
+        <v>45252</v>
       </c>
       <c r="B205">
-        <v>118.610001</v>
+        <v>119.959999</v>
       </c>
       <c r="C205">
-        <v>119.449997</v>
+        <v>120.110001</v>
       </c>
       <c r="D205">
-        <v>118.08000199999999</v>
+        <v>118.839996</v>
       </c>
       <c r="E205">
-        <v>118.959999</v>
+        <v>118.970001</v>
       </c>
       <c r="F205">
-        <v>117.732506</v>
+        <v>117.74240899999999</v>
       </c>
       <c r="G205">
-        <v>1499400</v>
+        <v>4038000</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>45257</v>
+        <v>45253</v>
       </c>
       <c r="B206">
-        <v>118.959999</v>
+        <v>118.889999</v>
       </c>
       <c r="C206">
-        <v>119</v>
+        <v>119.849998</v>
       </c>
       <c r="D206">
-        <v>117.949997</v>
+        <v>118.459999</v>
       </c>
       <c r="E206">
-        <v>118.129997</v>
+        <v>118.660004</v>
       </c>
       <c r="F206">
-        <v>116.911072</v>
+        <v>117.435608</v>
       </c>
       <c r="G206">
-        <v>3332500</v>
+        <v>1232500</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>45258</v>
+        <v>45254</v>
       </c>
       <c r="B207">
-        <v>117</v>
+        <v>118.610001</v>
       </c>
       <c r="C207">
-        <v>117.529999</v>
+        <v>119.449997</v>
       </c>
       <c r="D207">
-        <v>115.57</v>
+        <v>118.08000199999999</v>
       </c>
       <c r="E207">
-        <v>117.32</v>
+        <v>118.959999</v>
       </c>
       <c r="F207">
-        <v>116.10942799999999</v>
+        <v>117.732506</v>
       </c>
       <c r="G207">
-        <v>5890900</v>
+        <v>1499400</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>45259</v>
+        <v>45257</v>
       </c>
       <c r="B208">
-        <v>117.620003</v>
+        <v>118.959999</v>
       </c>
       <c r="C208">
-        <v>119.08000199999999</v>
+        <v>119</v>
       </c>
       <c r="D208">
-        <v>117.33000199999999</v>
+        <v>117.949997</v>
       </c>
       <c r="E208">
-        <v>118.80999799999999</v>
+        <v>118.129997</v>
       </c>
       <c r="F208">
-        <v>117.584053</v>
+        <v>116.911072</v>
       </c>
       <c r="G208">
-        <v>2681000</v>
+        <v>3332500</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>45260</v>
+        <v>45258</v>
       </c>
       <c r="B209">
-        <v>120.5</v>
+        <v>117</v>
       </c>
       <c r="C209">
-        <v>122.989998</v>
+        <v>117.529999</v>
       </c>
       <c r="D209">
-        <v>120.279999</v>
+        <v>115.57</v>
       </c>
       <c r="E209">
-        <v>122.620003</v>
+        <v>117.32</v>
       </c>
       <c r="F209">
-        <v>121.354744</v>
+        <v>116.10942799999999</v>
       </c>
       <c r="G209">
-        <v>5597700</v>
+        <v>5890900</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>45261</v>
+        <v>45259</v>
       </c>
       <c r="B210">
-        <v>122.599998</v>
+        <v>117.620003</v>
       </c>
       <c r="C210">
-        <v>123.120003</v>
+        <v>119.08000199999999</v>
       </c>
       <c r="D210">
-        <v>121.449997</v>
+        <v>117.33000199999999</v>
       </c>
       <c r="E210">
-        <v>122.94000200000001</v>
+        <v>118.80999799999999</v>
       </c>
       <c r="F210">
-        <v>121.67144</v>
+        <v>117.584053</v>
       </c>
       <c r="G210">
-        <v>3287900</v>
+        <v>2681000</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>45264</v>
+        <v>45260</v>
       </c>
       <c r="B211">
-        <v>122.379997</v>
+        <v>120.5</v>
       </c>
       <c r="C211">
-        <v>123.550003</v>
+        <v>122.989998</v>
       </c>
       <c r="D211">
-        <v>122.25</v>
+        <v>120.279999</v>
       </c>
       <c r="E211">
-        <v>123.25</v>
+        <v>122.620003</v>
       </c>
       <c r="F211">
-        <v>121.978241</v>
+        <v>121.354744</v>
       </c>
       <c r="G211">
-        <v>3027700</v>
+        <v>5597700</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>45265</v>
+        <v>45261</v>
       </c>
       <c r="B212">
-        <v>123.5</v>
+        <v>122.599998</v>
       </c>
       <c r="C212">
-        <v>124.510002</v>
+        <v>123.120003</v>
       </c>
       <c r="D212">
-        <v>123.220001</v>
+        <v>121.449997</v>
       </c>
       <c r="E212">
-        <v>124</v>
+        <v>122.94000200000001</v>
       </c>
       <c r="F212">
-        <v>122.720505</v>
+        <v>121.67144</v>
       </c>
       <c r="G212">
-        <v>2444500</v>
+        <v>3287900</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>45266</v>
+        <v>45264</v>
       </c>
       <c r="B213">
-        <v>124.5</v>
+        <v>122.379997</v>
       </c>
       <c r="C213">
-        <v>125.44000200000001</v>
+        <v>123.550003</v>
       </c>
       <c r="D213">
-        <v>123.760002</v>
+        <v>122.25</v>
       </c>
       <c r="E213">
-        <v>123.83000199999999</v>
+        <v>123.25</v>
       </c>
       <c r="F213">
-        <v>122.552261</v>
+        <v>121.978241</v>
       </c>
       <c r="G213">
-        <v>2357300</v>
+        <v>3027700</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>45267</v>
+        <v>45265</v>
       </c>
       <c r="B214">
-        <v>124.120003</v>
+        <v>123.5</v>
       </c>
       <c r="C214">
-        <v>124.5</v>
+        <v>124.510002</v>
       </c>
       <c r="D214">
-        <v>123.44000200000001</v>
+        <v>123.220001</v>
       </c>
       <c r="E214">
-        <v>124.260002</v>
+        <v>124</v>
       </c>
       <c r="F214">
-        <v>122.97782100000001</v>
+        <v>122.720505</v>
       </c>
       <c r="G214">
-        <v>2068200</v>
+        <v>2444500</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>45268</v>
+        <v>45266</v>
       </c>
       <c r="B215">
-        <v>124.349998</v>
+        <v>124.5</v>
       </c>
       <c r="C215">
-        <v>125.599998</v>
+        <v>125.44000200000001</v>
       </c>
       <c r="D215">
-        <v>124.279999</v>
+        <v>123.760002</v>
       </c>
       <c r="E215">
-        <v>125.239998</v>
+        <v>123.83000199999999</v>
       </c>
       <c r="F215">
-        <v>123.94770800000001</v>
+        <v>122.552261</v>
       </c>
       <c r="G215">
-        <v>5144200</v>
+        <v>2357300</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>45271</v>
+        <v>45267</v>
       </c>
       <c r="B216">
-        <v>125.5</v>
+        <v>124.120003</v>
       </c>
       <c r="C216">
-        <v>125.599998</v>
+        <v>124.5</v>
       </c>
       <c r="D216">
-        <v>124.489998</v>
+        <v>123.44000200000001</v>
       </c>
       <c r="E216">
-        <v>125.470001</v>
+        <v>124.260002</v>
       </c>
       <c r="F216">
-        <v>124.17533899999999</v>
+        <v>122.97782100000001</v>
       </c>
       <c r="G216">
-        <v>1605200</v>
+        <v>2068200</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>45272</v>
+        <v>45268</v>
       </c>
       <c r="B217">
-        <v>125.360001</v>
+        <v>124.349998</v>
       </c>
       <c r="C217">
-        <v>125.739998</v>
+        <v>125.599998</v>
       </c>
       <c r="D217">
-        <v>124.900002</v>
+        <v>124.279999</v>
       </c>
       <c r="E217">
-        <v>125.529999</v>
+        <v>125.239998</v>
       </c>
       <c r="F217">
-        <v>124.234718</v>
+        <v>123.94770800000001</v>
       </c>
       <c r="G217">
-        <v>2604800</v>
+        <v>5144200</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>45273</v>
+        <v>45271</v>
       </c>
       <c r="B218">
-        <v>125.699997</v>
+        <v>125.5</v>
       </c>
       <c r="C218">
-        <v>128.759995</v>
+        <v>125.599998</v>
       </c>
       <c r="D218">
-        <v>124.699997</v>
+        <v>124.489998</v>
       </c>
       <c r="E218">
-        <v>128.61999499999999</v>
+        <v>125.470001</v>
       </c>
       <c r="F218">
-        <v>127.292824</v>
+        <v>124.17533899999999</v>
       </c>
       <c r="G218">
-        <v>5317400</v>
+        <v>1605200</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>45274</v>
+        <v>45272</v>
       </c>
       <c r="B219">
-        <v>129</v>
+        <v>125.360001</v>
       </c>
       <c r="C219">
-        <v>131.020004</v>
+        <v>125.739998</v>
       </c>
       <c r="D219">
-        <v>128.970001</v>
+        <v>124.900002</v>
       </c>
       <c r="E219">
-        <v>130.86000100000001</v>
+        <v>125.529999</v>
       </c>
       <c r="F219">
-        <v>129.50971999999999</v>
+        <v>124.234718</v>
       </c>
       <c r="G219">
-        <v>14418300</v>
+        <v>2604800</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>45275</v>
+        <v>45273</v>
       </c>
       <c r="B220">
-        <v>131.199997</v>
+        <v>125.699997</v>
       </c>
       <c r="C220">
-        <v>131.83999600000001</v>
+        <v>128.759995</v>
       </c>
       <c r="D220">
-        <v>130.64999399999999</v>
+        <v>124.699997</v>
       </c>
       <c r="E220">
-        <v>131.38999899999999</v>
+        <v>128.61999499999999</v>
       </c>
       <c r="F220">
-        <v>130.034256</v>
+        <v>127.292824</v>
       </c>
       <c r="G220">
-        <v>14092100</v>
+        <v>5317400</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>45278</v>
+        <v>45274</v>
       </c>
       <c r="B221">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C221">
-        <v>133.05999800000001</v>
+        <v>131.020004</v>
       </c>
       <c r="D221">
-        <v>131.570007</v>
+        <v>128.970001</v>
       </c>
       <c r="E221">
-        <v>132.39999399999999</v>
+        <v>130.86000100000001</v>
       </c>
       <c r="F221">
-        <v>131.033829</v>
+        <v>129.50971999999999</v>
       </c>
       <c r="G221">
-        <v>2925800</v>
+        <v>14418300</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>45279</v>
+        <v>45275</v>
       </c>
       <c r="B222">
-        <v>132.570007</v>
+        <v>131.199997</v>
       </c>
       <c r="C222">
-        <v>133.60000600000001</v>
+        <v>131.83999600000001</v>
       </c>
       <c r="D222">
-        <v>132.5</v>
+        <v>130.64999399999999</v>
       </c>
       <c r="E222">
-        <v>133.38000500000001</v>
+        <v>131.38999899999999</v>
       </c>
       <c r="F222">
-        <v>132.00372300000001</v>
+        <v>130.034256</v>
       </c>
       <c r="G222">
-        <v>2755700</v>
+        <v>14092100</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>45280</v>
+        <v>45278</v>
       </c>
       <c r="B223">
-        <v>133.14999399999999</v>
+        <v>132</v>
       </c>
       <c r="C223">
-        <v>134.36000100000001</v>
+        <v>133.05999800000001</v>
       </c>
       <c r="D223">
-        <v>132.300003</v>
+        <v>131.570007</v>
       </c>
       <c r="E223">
-        <v>132.33000200000001</v>
+        <v>132.39999399999999</v>
       </c>
       <c r="F223">
-        <v>130.96455399999999</v>
+        <v>131.033829</v>
       </c>
       <c r="G223">
-        <v>4079300</v>
+        <v>2925800</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>45281</v>
+        <v>45279</v>
       </c>
       <c r="B224">
-        <v>133</v>
+        <v>132.570007</v>
       </c>
       <c r="C224">
-        <v>133.740005</v>
+        <v>133.60000600000001</v>
       </c>
       <c r="D224">
-        <v>132.779999</v>
+        <v>132.5</v>
       </c>
       <c r="E224">
-        <v>133.08999600000001</v>
+        <v>133.38000500000001</v>
       </c>
       <c r="F224">
-        <v>131.71670499999999</v>
+        <v>132.00372300000001</v>
       </c>
       <c r="G224">
-        <v>1809600</v>
+        <v>2755700</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>45282</v>
+        <v>45280</v>
       </c>
       <c r="B225">
-        <v>133.270004</v>
+        <v>133.14999399999999</v>
       </c>
       <c r="C225">
-        <v>134.16000399999999</v>
+        <v>134.36000100000001</v>
       </c>
       <c r="D225">
-        <v>133.220001</v>
+        <v>132.300003</v>
       </c>
       <c r="E225">
-        <v>133.66999799999999</v>
+        <v>132.33000200000001</v>
       </c>
       <c r="F225">
-        <v>132.29072600000001</v>
+        <v>130.96455399999999</v>
       </c>
       <c r="G225">
-        <v>2965400</v>
+        <v>4079300</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>45287</v>
+        <v>45281</v>
       </c>
       <c r="B226">
-        <v>133.75</v>
+        <v>133</v>
       </c>
       <c r="C226">
-        <v>134.69000199999999</v>
+        <v>133.740005</v>
       </c>
       <c r="D226">
-        <v>133.699997</v>
+        <v>132.779999</v>
       </c>
       <c r="E226">
-        <v>134.229996</v>
+        <v>133.08999600000001</v>
       </c>
       <c r="F226">
-        <v>132.84494000000001</v>
+        <v>131.71670499999999</v>
       </c>
       <c r="G226">
-        <v>2668400</v>
+        <v>1809600</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>45288</v>
+        <v>45282</v>
       </c>
       <c r="B227">
-        <v>133.949997</v>
+        <v>133.270004</v>
       </c>
       <c r="C227">
-        <v>134.38000500000001</v>
+        <v>134.16000399999999</v>
       </c>
       <c r="D227">
-        <v>133.61000100000001</v>
+        <v>133.220001</v>
       </c>
       <c r="E227">
-        <v>134.03999300000001</v>
+        <v>133.66999799999999</v>
       </c>
       <c r="F227">
-        <v>132.65690599999999</v>
+        <v>132.29072600000001</v>
       </c>
       <c r="G227">
-        <v>1631200</v>
+        <v>2965400</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>45289</v>
+        <v>45287</v>
       </c>
       <c r="B228">
-        <v>134.10000600000001</v>
+        <v>133.75</v>
       </c>
       <c r="C228">
-        <v>134.33999600000001</v>
+        <v>134.69000199999999</v>
       </c>
       <c r="D228">
         <v>133.699997</v>
       </c>
       <c r="E228">
-        <v>134</v>
+        <v>134.229996</v>
       </c>
       <c r="F228">
-        <v>132.61732499999999</v>
+        <v>132.84494000000001</v>
       </c>
       <c r="G228">
-        <v>2371300</v>
+        <v>2668400</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>45293</v>
+        <v>45288</v>
       </c>
       <c r="B229">
-        <v>133.36000100000001</v>
+        <v>133.949997</v>
       </c>
       <c r="C229">
-        <v>134.11999499999999</v>
+        <v>134.38000500000001</v>
       </c>
       <c r="D229">
-        <v>133.179993</v>
+        <v>133.61000100000001</v>
       </c>
       <c r="E229">
-        <v>133.949997</v>
+        <v>134.03999300000001</v>
       </c>
       <c r="F229">
-        <v>132.567825</v>
+        <v>132.65690599999999</v>
       </c>
       <c r="G229">
-        <v>8608500</v>
+        <v>1631200</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>45294</v>
+        <v>45289</v>
       </c>
       <c r="B230">
-        <v>133.570007</v>
+        <v>134.10000600000001</v>
       </c>
       <c r="C230">
-        <v>133.91999799999999</v>
+        <v>134.33999600000001</v>
       </c>
       <c r="D230">
-        <v>132.779999</v>
+        <v>133.699997</v>
       </c>
       <c r="E230">
-        <v>133.58000200000001</v>
+        <v>134</v>
       </c>
       <c r="F230">
-        <v>132.20166</v>
+        <v>132.61732499999999</v>
       </c>
       <c r="G230">
-        <v>5352100</v>
+        <v>2371300</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B231">
-        <v>133.550003</v>
+        <v>133.36000100000001</v>
       </c>
       <c r="C231">
-        <v>134.970001</v>
+        <v>134.11999499999999</v>
       </c>
       <c r="D231">
-        <v>133.490005</v>
+        <v>133.179993</v>
       </c>
       <c r="E231">
-        <v>133.770004</v>
+        <v>133.949997</v>
       </c>
       <c r="F231">
-        <v>132.38969399999999</v>
+        <v>132.567825</v>
       </c>
       <c r="G231">
-        <v>2113300</v>
+        <v>8608500</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B232">
-        <v>133.94000199999999</v>
+        <v>133.570007</v>
       </c>
       <c r="C232">
-        <v>134.800003</v>
+        <v>133.91999799999999</v>
       </c>
       <c r="D232">
-        <v>133.55999800000001</v>
+        <v>132.779999</v>
       </c>
       <c r="E232">
-        <v>134.63000500000001</v>
+        <v>133.58000200000001</v>
       </c>
       <c r="F232">
-        <v>133.24082899999999</v>
+        <v>132.20166</v>
       </c>
       <c r="G232">
-        <v>3482400</v>
+        <v>5352100</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B233">
-        <v>134.300003</v>
+        <v>133.550003</v>
       </c>
       <c r="C233">
-        <v>135.300003</v>
+        <v>134.970001</v>
       </c>
       <c r="D233">
-        <v>134.16000399999999</v>
+        <v>133.490005</v>
       </c>
       <c r="E233">
-        <v>135.300003</v>
+        <v>133.770004</v>
       </c>
       <c r="F233">
-        <v>133.90389999999999</v>
+        <v>132.38969399999999</v>
       </c>
       <c r="G233">
-        <v>4469600</v>
+        <v>2113300</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>45300</v>
+        <v>45296</v>
       </c>
       <c r="B234">
-        <v>135.029999</v>
+        <v>133.94000199999999</v>
       </c>
       <c r="C234">
-        <v>135.63000500000001</v>
+        <v>134.800003</v>
       </c>
       <c r="D234">
-        <v>134.240005</v>
+        <v>133.55999800000001</v>
       </c>
       <c r="E234">
-        <v>135.33000200000001</v>
+        <v>134.63000500000001</v>
       </c>
       <c r="F234">
-        <v>133.933594</v>
+        <v>133.24082899999999</v>
       </c>
       <c r="G234">
-        <v>6545200</v>
+        <v>3482400</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="B235">
-        <v>134.970001</v>
+        <v>134.300003</v>
       </c>
       <c r="C235">
-        <v>135.58999600000001</v>
+        <v>135.300003</v>
       </c>
       <c r="D235">
-        <v>133.80999800000001</v>
+        <v>134.16000399999999</v>
       </c>
       <c r="E235">
-        <v>134.63999899999999</v>
+        <v>135.300003</v>
       </c>
       <c r="F235">
-        <v>133.25071700000001</v>
+        <v>133.90389999999999</v>
       </c>
       <c r="G235">
-        <v>3238500</v>
+        <v>4469600</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>45302</v>
+        <v>45300</v>
       </c>
       <c r="B236">
-        <v>134.33000200000001</v>
+        <v>135.029999</v>
       </c>
       <c r="C236">
-        <v>134.61000100000001</v>
+        <v>135.63000500000001</v>
       </c>
       <c r="D236">
-        <v>132.729996</v>
+        <v>134.240005</v>
       </c>
       <c r="E236">
-        <v>133.320007</v>
+        <v>135.33000200000001</v>
       </c>
       <c r="F236">
-        <v>131.94433599999999</v>
+        <v>133.933594</v>
       </c>
       <c r="G236">
-        <v>3157900</v>
+        <v>6545200</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="B237">
-        <v>133.529999</v>
+        <v>134.970001</v>
       </c>
       <c r="C237">
-        <v>134.13000500000001</v>
+        <v>135.58999600000001</v>
       </c>
       <c r="D237">
-        <v>132.11999499999999</v>
+        <v>133.80999800000001</v>
       </c>
       <c r="E237">
-        <v>132.199997</v>
+        <v>134.63999899999999</v>
       </c>
       <c r="F237">
-        <v>130.835892</v>
+        <v>133.25071700000001</v>
       </c>
       <c r="G237">
-        <v>3466600</v>
+        <v>3238500</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>45306</v>
+        <v>45302</v>
       </c>
       <c r="B238">
-        <v>132</v>
+        <v>134.33000200000001</v>
       </c>
       <c r="C238">
-        <v>132.83999600000001</v>
+        <v>134.61000100000001</v>
       </c>
       <c r="D238">
-        <v>131.35000600000001</v>
+        <v>132.729996</v>
       </c>
       <c r="E238">
-        <v>132.449997</v>
+        <v>133.320007</v>
       </c>
       <c r="F238">
-        <v>131.083313</v>
+        <v>131.94433599999999</v>
       </c>
       <c r="G238">
-        <v>802000</v>
+        <v>3157900</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>45307</v>
+        <v>45303</v>
       </c>
       <c r="B239">
-        <v>131.69000199999999</v>
+        <v>133.529999</v>
       </c>
       <c r="C239">
-        <v>132.800003</v>
+        <v>134.13000500000001</v>
       </c>
       <c r="D239">
-        <v>131.38000500000001</v>
+        <v>132.11999499999999</v>
       </c>
       <c r="E239">
-        <v>132.800003</v>
+        <v>132.199997</v>
       </c>
       <c r="F239">
-        <v>131.42970299999999</v>
+        <v>130.835892</v>
       </c>
       <c r="G239">
-        <v>11017200</v>
+        <v>3466600</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>45308</v>
+        <v>45306</v>
       </c>
       <c r="B240">
-        <v>132.10000600000001</v>
+        <v>132</v>
       </c>
       <c r="C240">
-        <v>132.39999399999999</v>
+        <v>132.83999600000001</v>
       </c>
       <c r="D240">
-        <v>130.80999800000001</v>
+        <v>131.35000600000001</v>
       </c>
       <c r="E240">
-        <v>131.720001</v>
+        <v>132.449997</v>
       </c>
       <c r="F240">
-        <v>130.36084</v>
+        <v>131.083313</v>
       </c>
       <c r="G240">
-        <v>8537200</v>
+        <v>802000</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>45309</v>
+        <v>45307</v>
       </c>
       <c r="B241">
-        <v>132.490005</v>
+        <v>131.69000199999999</v>
       </c>
       <c r="C241">
-        <v>132.96000699999999</v>
+        <v>132.800003</v>
       </c>
       <c r="D241">
-        <v>131.990005</v>
+        <v>131.38000500000001</v>
       </c>
       <c r="E241">
-        <v>132.520004</v>
+        <v>132.800003</v>
       </c>
       <c r="F241">
-        <v>131.15258800000001</v>
+        <v>131.42970299999999</v>
       </c>
       <c r="G241">
-        <v>6707500</v>
+        <v>11017200</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>45310</v>
+        <v>45308</v>
       </c>
       <c r="B242">
-        <v>132.85000600000001</v>
+        <v>132.10000600000001</v>
       </c>
       <c r="C242">
-        <v>134.08999600000001</v>
+        <v>132.39999399999999</v>
       </c>
       <c r="D242">
-        <v>131.66999799999999</v>
+        <v>130.80999800000001</v>
       </c>
       <c r="E242">
-        <v>133.80999800000001</v>
+        <v>131.720001</v>
       </c>
       <c r="F242">
-        <v>132.42927599999999</v>
+        <v>130.36084</v>
       </c>
       <c r="G242">
-        <v>11983200</v>
+        <v>8537200</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>45313</v>
+        <v>45309</v>
       </c>
       <c r="B243">
-        <v>133.800003</v>
+        <v>132.490005</v>
       </c>
       <c r="C243">
-        <v>134.33999600000001</v>
+        <v>132.96000699999999</v>
       </c>
       <c r="D243">
-        <v>132.729996</v>
+        <v>131.990005</v>
       </c>
       <c r="E243">
-        <v>133.41000399999999</v>
+        <v>132.520004</v>
       </c>
       <c r="F243">
-        <v>132.03341699999999</v>
+        <v>131.15258800000001</v>
       </c>
       <c r="G243">
-        <v>14845300</v>
+        <v>6707500</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="B244">
-        <v>133.69000199999999</v>
+        <v>132.85000600000001</v>
       </c>
       <c r="C244">
-        <v>134.08000200000001</v>
+        <v>134.08999600000001</v>
       </c>
       <c r="D244">
-        <v>133.25</v>
+        <v>131.66999799999999</v>
       </c>
       <c r="E244">
-        <v>133.740005</v>
+        <v>133.80999800000001</v>
       </c>
       <c r="F244">
-        <v>132.36000100000001</v>
+        <v>132.42927599999999</v>
       </c>
       <c r="G244">
-        <v>8797300</v>
+        <v>11983200</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>45315</v>
+        <v>45313</v>
       </c>
       <c r="B245">
-        <v>132.78999300000001</v>
+        <v>133.800003</v>
       </c>
       <c r="C245">
-        <v>133.36999499999999</v>
+        <v>134.33999600000001</v>
       </c>
       <c r="D245">
-        <v>132.020004</v>
+        <v>132.729996</v>
       </c>
       <c r="E245">
-        <v>132.33999600000001</v>
+        <v>133.41000399999999</v>
       </c>
       <c r="F245">
-        <v>132.33999600000001</v>
+        <v>132.03341699999999</v>
       </c>
       <c r="G245">
-        <v>20283500</v>
+        <v>14845300</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>45316</v>
+        <v>45314</v>
       </c>
       <c r="B246">
-        <v>132.69000199999999</v>
+        <v>133.69000199999999</v>
       </c>
       <c r="C246">
-        <v>132.86999499999999</v>
+        <v>134.08000200000001</v>
       </c>
       <c r="D246">
-        <v>131.63000500000001</v>
+        <v>133.25</v>
       </c>
       <c r="E246">
-        <v>132.33999600000001</v>
+        <v>133.740005</v>
       </c>
       <c r="F246">
-        <v>132.33999600000001</v>
+        <v>132.36000100000001</v>
       </c>
       <c r="G246">
-        <v>10162800</v>
+        <v>8797300</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>45317</v>
+        <v>45315</v>
       </c>
       <c r="B247">
-        <v>131.5</v>
+        <v>132.78999300000001</v>
       </c>
       <c r="C247">
-        <v>133.14999399999999</v>
+        <v>133.36999499999999</v>
       </c>
       <c r="D247">
-        <v>131.5</v>
+        <v>132.020004</v>
       </c>
       <c r="E247">
-        <v>132.990005</v>
+        <v>132.33999600000001</v>
       </c>
       <c r="F247">
-        <v>132.990005</v>
+        <v>132.33999600000001</v>
       </c>
       <c r="G247">
-        <v>12877200</v>
+        <v>20283500</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>45320</v>
+        <v>45316</v>
       </c>
       <c r="B248">
-        <v>132.58999600000001</v>
+        <v>132.69000199999999</v>
       </c>
       <c r="C248">
-        <v>132.779999</v>
+        <v>132.86999499999999</v>
       </c>
       <c r="D248">
-        <v>131.85000600000001</v>
+        <v>131.63000500000001</v>
       </c>
       <c r="E248">
-        <v>132.71000699999999</v>
+        <v>132.33999600000001</v>
       </c>
       <c r="F248">
-        <v>132.71000699999999</v>
+        <v>132.33999600000001</v>
       </c>
       <c r="G248">
-        <v>9073200</v>
+        <v>10162800</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>45321</v>
+        <v>45317</v>
       </c>
       <c r="B249">
-        <v>132.679993</v>
+        <v>131.5</v>
       </c>
       <c r="C249">
-        <v>133.21000699999999</v>
+        <v>133.14999399999999</v>
       </c>
       <c r="D249">
-        <v>132.13000500000001</v>
+        <v>131.5</v>
       </c>
       <c r="E249">
-        <v>133.08999600000001</v>
+        <v>132.990005</v>
       </c>
       <c r="F249">
-        <v>133.08999600000001</v>
+        <v>132.990005</v>
       </c>
       <c r="G249">
-        <v>3158800</v>
+        <v>12877200</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>45322</v>
+        <v>45320</v>
       </c>
       <c r="B250">
-        <v>133.16999799999999</v>
+        <v>132.58999600000001</v>
       </c>
       <c r="C250">
-        <v>133.60000600000001</v>
+        <v>132.779999</v>
       </c>
       <c r="D250">
-        <v>131.070007</v>
+        <v>131.85000600000001</v>
       </c>
       <c r="E250">
-        <v>131.21000699999999</v>
+        <v>132.71000699999999</v>
       </c>
       <c r="F250">
-        <v>131.21000699999999</v>
+        <v>132.71000699999999</v>
       </c>
       <c r="G250">
-        <v>4254000</v>
+        <v>9073200</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>45323</v>
+        <v>45321</v>
       </c>
       <c r="B251">
-        <v>131.08000200000001</v>
+        <v>132.679993</v>
       </c>
       <c r="C251">
-        <v>131.63999899999999</v>
+        <v>133.21000699999999</v>
       </c>
       <c r="D251">
-        <v>130.240005</v>
+        <v>132.13000500000001</v>
       </c>
       <c r="E251">
-        <v>131.490005</v>
+        <v>133.08999600000001</v>
       </c>
       <c r="F251">
-        <v>131.490005</v>
+        <v>133.08999600000001</v>
       </c>
       <c r="G251">
-        <v>3265300</v>
+        <v>3158800</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B252">
+        <v>133.16999799999999</v>
+      </c>
+      <c r="C252">
+        <v>133.60000600000001</v>
+      </c>
+      <c r="D252">
+        <v>131.070007</v>
+      </c>
+      <c r="E252">
+        <v>131.21000699999999</v>
+      </c>
+      <c r="F252">
+        <v>131.21000699999999</v>
+      </c>
+      <c r="G252">
+        <v>4254000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B253">
+        <v>131.08000200000001</v>
+      </c>
+      <c r="C253">
+        <v>131.63999899999999</v>
+      </c>
+      <c r="D253">
+        <v>130.240005</v>
+      </c>
+      <c r="E253">
+        <v>131.490005</v>
+      </c>
+      <c r="F253">
+        <v>131.490005</v>
+      </c>
+      <c r="G253">
+        <v>3265300</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>45324</v>
       </c>
-      <c r="B252">
+      <c r="B254">
         <v>131.46000699999999</v>
       </c>
-      <c r="C252">
+      <c r="C254">
         <v>131.46000699999999</v>
       </c>
-      <c r="D252">
+      <c r="D254">
         <v>130.240005</v>
       </c>
-      <c r="E252">
+      <c r="E254">
         <v>131.220001</v>
       </c>
-      <c r="F252">
+      <c r="F254">
         <v>131.220001</v>
       </c>
-      <c r="G252">
+      <c r="G254">
         <v>4227100</v>
       </c>
     </row>
